--- a/寄存器分配与协议new.xlsx
+++ b/寄存器分配与协议new.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\021_dehumi_analog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B7FA2BF-9744-4D2F-B484-D68CD01DE1C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF4124BB-8A5A-4B0F-BA83-9A4FC34353BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LW分配表" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="458">
   <si>
     <t>寄存器分配表</t>
   </si>
@@ -1438,6 +1438,18 @@
   </si>
   <si>
     <t>Current_Status</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>主站地址</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HMI-COM2地址变化标志</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1643,7 +1655,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1849,31 +1861,59 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1889,86 +1929,70 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1994,14 +2018,14 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>25855</xdr:colOff>
-      <xdr:row>124</xdr:row>
+      <xdr:row>125</xdr:row>
       <xdr:rowOff>75466</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>20719</xdr:colOff>
-      <xdr:row>149</xdr:row>
-      <xdr:rowOff>109167</xdr:rowOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>113929</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2295,10 +2319,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H135"/>
+  <dimension ref="A1:H137"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView topLeftCell="A85" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B94" sqref="B94:E94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -2315,24 +2339,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A2" s="69"/>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
+      <c r="A2" s="70"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="23" t="s">
@@ -2356,7 +2380,7 @@
       <c r="G3" s="23"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="65" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="23">
@@ -2372,12 +2396,12 @@
         <v>10</v>
       </c>
       <c r="F4" s="23"/>
-      <c r="G4" s="60" t="s">
+      <c r="G4" s="65" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A5" s="61"/>
+      <c r="A5" s="66"/>
       <c r="B5" s="23">
         <v>1</v>
       </c>
@@ -2393,10 +2417,10 @@
       <c r="F5" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="61"/>
+      <c r="G5" s="66"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A6" s="61"/>
+      <c r="A6" s="66"/>
       <c r="B6" s="23">
         <v>2</v>
       </c>
@@ -2412,10 +2436,10 @@
       <c r="F6" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="61"/>
+      <c r="G6" s="66"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A7" s="61"/>
+      <c r="A7" s="66"/>
       <c r="B7" s="23">
         <v>3</v>
       </c>
@@ -2431,10 +2455,10 @@
       <c r="F7" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="61"/>
+      <c r="G7" s="66"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A8" s="61"/>
+      <c r="A8" s="66"/>
       <c r="B8" s="23">
         <v>4</v>
       </c>
@@ -2448,10 +2472,10 @@
         <v>10</v>
       </c>
       <c r="F8" s="23"/>
-      <c r="G8" s="61"/>
+      <c r="G8" s="66"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A9" s="61"/>
+      <c r="A9" s="66"/>
       <c r="B9" s="23">
         <v>5</v>
       </c>
@@ -2467,52 +2491,52 @@
       <c r="F9" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="61"/>
+      <c r="G9" s="66"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A10" s="61"/>
-      <c r="B10" s="92">
+      <c r="A10" s="66"/>
+      <c r="B10" s="63">
         <v>6</v>
       </c>
-      <c r="C10" s="92" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="92" t="s">
+      <c r="C10" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="93" t="s">
+      <c r="E10" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="92" t="s">
+      <c r="F10" s="63" t="s">
         <v>452</v>
       </c>
-      <c r="G10" s="61"/>
+      <c r="G10" s="66"/>
       <c r="H10" s="41" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A11" s="61"/>
-      <c r="B11" s="92">
+      <c r="A11" s="66"/>
+      <c r="B11" s="63">
         <v>7</v>
       </c>
-      <c r="C11" s="92" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="92" t="s">
+      <c r="C11" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="93" t="s">
+      <c r="E11" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="92"/>
-      <c r="G11" s="61"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="66"/>
       <c r="H11" s="41" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A12" s="61"/>
+      <c r="A12" s="66"/>
       <c r="B12" s="23">
         <v>8</v>
       </c>
@@ -2526,10 +2550,10 @@
         <v>10</v>
       </c>
       <c r="F12" s="23"/>
-      <c r="G12" s="61"/>
+      <c r="G12" s="66"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A13" s="61"/>
+      <c r="A13" s="66"/>
       <c r="B13" s="23">
         <v>9</v>
       </c>
@@ -2543,10 +2567,10 @@
         <v>10</v>
       </c>
       <c r="F13" s="23"/>
-      <c r="G13" s="61"/>
+      <c r="G13" s="66"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A14" s="61"/>
+      <c r="A14" s="66"/>
       <c r="B14" s="23">
         <v>10</v>
       </c>
@@ -2560,10 +2584,10 @@
         <v>10</v>
       </c>
       <c r="F14" s="23"/>
-      <c r="G14" s="61"/>
+      <c r="G14" s="66"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A15" s="61"/>
+      <c r="A15" s="66"/>
       <c r="B15" s="23">
         <v>11</v>
       </c>
@@ -2577,19 +2601,19 @@
         <v>10</v>
       </c>
       <c r="F15" s="23"/>
-      <c r="G15" s="61"/>
+      <c r="G15" s="66"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A16" s="61"/>
+      <c r="A16" s="66"/>
       <c r="B16" s="23"/>
       <c r="C16" s="23"/>
       <c r="D16" s="23"/>
       <c r="E16" s="23"/>
       <c r="F16" s="23"/>
-      <c r="G16" s="61"/>
+      <c r="G16" s="66"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A17" s="61"/>
+      <c r="A17" s="66"/>
       <c r="B17" s="23">
         <v>50</v>
       </c>
@@ -2601,33 +2625,33 @@
         <v>19</v>
       </c>
       <c r="F17" s="23"/>
-      <c r="G17" s="61"/>
+      <c r="G17" s="66"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A18" s="61"/>
+      <c r="A18" s="66"/>
       <c r="F18" s="23"/>
-      <c r="G18" s="61"/>
+      <c r="G18" s="66"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A19" s="61"/>
+      <c r="A19" s="66"/>
       <c r="B19" s="23"/>
       <c r="C19" s="23"/>
       <c r="D19" s="23"/>
       <c r="E19" s="23"/>
       <c r="F19" s="23"/>
-      <c r="G19" s="61"/>
+      <c r="G19" s="66"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A20" s="62"/>
+      <c r="A20" s="67"/>
       <c r="B20" s="23"/>
       <c r="C20" s="23"/>
       <c r="D20" s="23"/>
       <c r="E20" s="23"/>
       <c r="F20" s="23"/>
-      <c r="G20" s="62"/>
+      <c r="G20" s="67"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A21" s="69" t="s">
+      <c r="A21" s="70" t="s">
         <v>20</v>
       </c>
       <c r="B21" s="23">
@@ -2644,18 +2668,18 @@
       <c r="F21" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="G21" s="64" t="s">
+      <c r="G21" s="68" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A22" s="69"/>
+      <c r="A22" s="70"/>
       <c r="B22" s="23">
         <f>C21+1</f>
         <v>101</v>
       </c>
       <c r="C22" s="23">
-        <f t="shared" ref="C22:C23" si="0">B22</f>
+        <f>B22</f>
         <v>101</v>
       </c>
       <c r="D22" s="23"/>
@@ -2665,16 +2689,16 @@
       <c r="F22" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="G22" s="64"/>
+      <c r="G22" s="68"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A23" s="69"/>
+      <c r="A23" s="70"/>
       <c r="B23" s="23">
         <f>C22+1</f>
         <v>102</v>
       </c>
       <c r="C23" s="23">
-        <f t="shared" si="0"/>
+        <f>B23</f>
         <v>102</v>
       </c>
       <c r="D23" s="23"/>
@@ -2684,16 +2708,16 @@
       <c r="F23" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="G23" s="64"/>
+      <c r="G23" s="68"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A24" s="69"/>
+      <c r="A24" s="70"/>
       <c r="B24" s="23">
-        <f t="shared" ref="B24:B29" si="1">C23+1</f>
+        <f>C23+1</f>
         <v>103</v>
       </c>
       <c r="C24" s="23">
-        <f t="shared" ref="C24:C29" si="2">B24</f>
+        <f>B24</f>
         <v>103</v>
       </c>
       <c r="D24" s="42"/>
@@ -2703,16 +2727,16 @@
       <c r="F24" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="G24" s="64"/>
+      <c r="G24" s="68"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A25" s="69"/>
+      <c r="A25" s="70"/>
       <c r="B25" s="23">
-        <f t="shared" si="1"/>
+        <f>C24+1</f>
         <v>104</v>
       </c>
       <c r="C25" s="23">
-        <f t="shared" si="2"/>
+        <f>B25</f>
         <v>104</v>
       </c>
       <c r="D25" s="23"/>
@@ -2722,16 +2746,16 @@
       <c r="F25" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="G25" s="64"/>
+      <c r="G25" s="68"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A26" s="69"/>
+      <c r="A26" s="70"/>
       <c r="B26" s="23">
-        <f t="shared" si="1"/>
+        <f>C25+1</f>
         <v>105</v>
       </c>
       <c r="C26" s="23">
-        <f t="shared" si="2"/>
+        <f>B26</f>
         <v>105</v>
       </c>
       <c r="D26" s="23"/>
@@ -2741,16 +2765,16 @@
       <c r="F26" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="G26" s="64"/>
+      <c r="G26" s="68"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A27" s="69"/>
+      <c r="A27" s="70"/>
       <c r="B27" s="27">
-        <f t="shared" si="1"/>
+        <f>C26+1</f>
         <v>106</v>
       </c>
       <c r="C27" s="27">
-        <f t="shared" si="2"/>
+        <f>B27</f>
         <v>106</v>
       </c>
       <c r="D27" s="27"/>
@@ -2760,19 +2784,19 @@
       <c r="F27" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="G27" s="64"/>
+      <c r="G27" s="68"/>
       <c r="H27" s="41" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A28" s="69"/>
+      <c r="A28" s="70"/>
       <c r="B28" s="27">
-        <f t="shared" si="1"/>
+        <f>C27+1</f>
         <v>107</v>
       </c>
       <c r="C28" s="27">
-        <f t="shared" si="2"/>
+        <f>B28</f>
         <v>107</v>
       </c>
       <c r="D28" s="27"/>
@@ -2782,19 +2806,19 @@
       <c r="F28" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="G28" s="64"/>
+      <c r="G28" s="68"/>
       <c r="H28" s="41" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A29" s="69"/>
+      <c r="A29" s="70"/>
       <c r="B29" s="27">
-        <f t="shared" si="1"/>
+        <f>C28+1</f>
         <v>108</v>
       </c>
       <c r="C29" s="27">
-        <f t="shared" si="2"/>
+        <f>B29</f>
         <v>108</v>
       </c>
       <c r="D29" s="27"/>
@@ -2804,21 +2828,21 @@
       <c r="F29" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="G29" s="64"/>
+      <c r="G29" s="68"/>
       <c r="H29" s="41" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A30" s="69"/>
+      <c r="A30" s="70"/>
       <c r="B30" s="23"/>
       <c r="C30" s="23"/>
       <c r="D30" s="23"/>
       <c r="F30" s="23"/>
-      <c r="G30" s="64"/>
+      <c r="G30" s="68"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A31" s="69"/>
+      <c r="A31" s="70"/>
       <c r="B31" s="27">
         <v>120</v>
       </c>
@@ -2834,13 +2858,13 @@
       <c r="F31" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="G31" s="64"/>
+      <c r="G31" s="68"/>
       <c r="H31" s="41" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A32" s="69"/>
+      <c r="A32" s="70"/>
       <c r="B32" s="27">
         <v>122</v>
       </c>
@@ -2856,13 +2880,13 @@
       <c r="F32" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="G32" s="64"/>
+      <c r="G32" s="68"/>
       <c r="H32" s="41" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A33" s="69"/>
+      <c r="A33" s="70"/>
       <c r="B33" s="27">
         <v>123</v>
       </c>
@@ -2878,31 +2902,31 @@
       <c r="F33" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="G33" s="64"/>
+      <c r="G33" s="68"/>
       <c r="H33" s="41" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A34" s="69"/>
+      <c r="A34" s="70"/>
       <c r="B34" s="23"/>
       <c r="C34" s="23"/>
       <c r="D34" s="23"/>
       <c r="E34" s="23"/>
       <c r="F34" s="23"/>
-      <c r="G34" s="64"/>
+      <c r="G34" s="68"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A35" s="69"/>
+      <c r="A35" s="70"/>
       <c r="B35" s="42"/>
       <c r="C35" s="42"/>
       <c r="D35" s="42"/>
       <c r="E35" s="42"/>
       <c r="F35" s="23"/>
-      <c r="G35" s="65"/>
+      <c r="G35" s="69"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A36" s="60" t="s">
+      <c r="A36" s="65" t="s">
         <v>38</v>
       </c>
       <c r="B36" s="27">
@@ -2918,10 +2942,10 @@
       <c r="E36" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="F36" s="60" t="s">
+      <c r="F36" s="65" t="s">
         <v>40</v>
       </c>
-      <c r="G36" s="61" t="s">
+      <c r="G36" s="66" t="s">
         <v>41</v>
       </c>
       <c r="H36" s="41" t="s">
@@ -2929,9 +2953,9 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A37" s="61"/>
+      <c r="A37" s="66"/>
       <c r="B37" s="23">
-        <f t="shared" ref="B37:B48" si="3">C36+1</f>
+        <f>C36+1</f>
         <v>302</v>
       </c>
       <c r="C37" s="23">
@@ -2944,16 +2968,16 @@
       <c r="E37" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="F37" s="61"/>
-      <c r="G37" s="61"/>
+      <c r="F37" s="66"/>
+      <c r="G37" s="66"/>
       <c r="H37" s="41" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A38" s="61"/>
+      <c r="A38" s="66"/>
       <c r="B38" s="23">
-        <f t="shared" si="3"/>
+        <f>C37+1</f>
         <v>304</v>
       </c>
       <c r="C38" s="23">
@@ -2966,16 +2990,16 @@
       <c r="E38" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="F38" s="61"/>
-      <c r="G38" s="61"/>
+      <c r="F38" s="66"/>
+      <c r="G38" s="66"/>
       <c r="H38" s="41" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A39" s="61"/>
+      <c r="A39" s="66"/>
       <c r="B39" s="27">
-        <f t="shared" si="3"/>
+        <f>C38+1</f>
         <v>306</v>
       </c>
       <c r="C39" s="27">
@@ -2988,20 +3012,20 @@
       <c r="E39" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="F39" s="62"/>
-      <c r="G39" s="61"/>
+      <c r="F39" s="67"/>
+      <c r="G39" s="66"/>
       <c r="H39" s="41" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A40" s="61"/>
+      <c r="A40" s="66"/>
       <c r="B40" s="27">
-        <f t="shared" si="3"/>
+        <f>C39+1</f>
         <v>308</v>
       </c>
       <c r="C40" s="27">
-        <f t="shared" ref="C40:C48" si="4">B40</f>
+        <f>B40</f>
         <v>308</v>
       </c>
       <c r="D40" s="27" t="s">
@@ -3010,22 +3034,22 @@
       <c r="E40" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="F40" s="60" t="s">
+      <c r="F40" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="G40" s="61"/>
+      <c r="G40" s="66"/>
       <c r="H40" s="41" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A41" s="61"/>
+      <c r="A41" s="66"/>
       <c r="B41" s="23">
-        <f t="shared" si="3"/>
+        <f>C40+1</f>
         <v>309</v>
       </c>
       <c r="C41" s="23">
-        <f t="shared" si="4"/>
+        <f>B41</f>
         <v>309</v>
       </c>
       <c r="D41" s="23" t="s">
@@ -3034,20 +3058,20 @@
       <c r="E41" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="F41" s="61"/>
-      <c r="G41" s="61"/>
+      <c r="F41" s="66"/>
+      <c r="G41" s="66"/>
       <c r="H41" s="41" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A42" s="61"/>
+      <c r="A42" s="66"/>
       <c r="B42" s="23">
-        <f t="shared" si="3"/>
+        <f>C41+1</f>
         <v>310</v>
       </c>
       <c r="C42" s="23">
-        <f t="shared" si="4"/>
+        <f>B42</f>
         <v>310</v>
       </c>
       <c r="D42" s="23" t="s">
@@ -3056,20 +3080,20 @@
       <c r="E42" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="F42" s="61"/>
-      <c r="G42" s="61"/>
+      <c r="F42" s="66"/>
+      <c r="G42" s="66"/>
       <c r="H42" s="41" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A43" s="61"/>
+      <c r="A43" s="66"/>
       <c r="B43" s="27">
-        <f t="shared" si="3"/>
+        <f>C42+1</f>
         <v>311</v>
       </c>
       <c r="C43" s="27">
-        <f t="shared" si="4"/>
+        <f>B43</f>
         <v>311</v>
       </c>
       <c r="D43" s="27" t="s">
@@ -3078,20 +3102,20 @@
       <c r="E43" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="F43" s="62"/>
-      <c r="G43" s="61"/>
+      <c r="F43" s="67"/>
+      <c r="G43" s="66"/>
       <c r="H43" s="41" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A44" s="61"/>
+      <c r="A44" s="66"/>
       <c r="B44" s="23">
-        <f t="shared" si="3"/>
+        <f>C43+1</f>
         <v>312</v>
       </c>
       <c r="C44" s="23">
-        <f t="shared" si="4"/>
+        <f>B44</f>
         <v>312</v>
       </c>
       <c r="D44" s="23" t="s">
@@ -3100,19 +3124,19 @@
       <c r="E44" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="F44" s="60" t="s">
+      <c r="F44" s="65" t="s">
         <v>50</v>
       </c>
-      <c r="G44" s="61"/>
+      <c r="G44" s="66"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A45" s="61"/>
+      <c r="A45" s="66"/>
       <c r="B45" s="23">
-        <f t="shared" si="3"/>
+        <f>C44+1</f>
         <v>313</v>
       </c>
       <c r="C45" s="23">
-        <f t="shared" si="4"/>
+        <f>B45</f>
         <v>313</v>
       </c>
       <c r="D45" s="23" t="s">
@@ -3121,17 +3145,17 @@
       <c r="E45" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="F45" s="62"/>
-      <c r="G45" s="61"/>
+      <c r="F45" s="67"/>
+      <c r="G45" s="66"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A46" s="61"/>
+      <c r="A46" s="66"/>
       <c r="B46" s="23">
-        <f t="shared" si="3"/>
+        <f>C45+1</f>
         <v>314</v>
       </c>
       <c r="C46" s="23">
-        <f t="shared" si="4"/>
+        <f>B46</f>
         <v>314</v>
       </c>
       <c r="D46" s="23" t="s">
@@ -3140,19 +3164,19 @@
       <c r="E46" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="F46" s="60" t="s">
+      <c r="F46" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="G46" s="61"/>
+      <c r="G46" s="66"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A47" s="61"/>
+      <c r="A47" s="66"/>
       <c r="B47" s="23">
-        <f t="shared" si="3"/>
+        <f>C46+1</f>
         <v>315</v>
       </c>
       <c r="C47" s="23">
-        <f t="shared" si="4"/>
+        <f>B47</f>
         <v>315</v>
       </c>
       <c r="D47" s="23" t="s">
@@ -3161,17 +3185,17 @@
       <c r="E47" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="F47" s="62"/>
-      <c r="G47" s="61"/>
+      <c r="F47" s="67"/>
+      <c r="G47" s="66"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A48" s="61"/>
+      <c r="A48" s="66"/>
       <c r="B48" s="27">
-        <f t="shared" si="3"/>
+        <f>C47+1</f>
         <v>316</v>
       </c>
       <c r="C48" s="27">
-        <f t="shared" si="4"/>
+        <f>B48</f>
         <v>316</v>
       </c>
       <c r="D48" s="27" t="s">
@@ -3183,19 +3207,19 @@
       <c r="F48" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="G48" s="61"/>
+      <c r="G48" s="66"/>
       <c r="H48" s="41" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A49" s="61"/>
+      <c r="A49" s="66"/>
       <c r="B49" s="27">
-        <f t="shared" ref="B49:B53" si="5">C48+1</f>
+        <f>C48+1</f>
         <v>317</v>
       </c>
       <c r="C49" s="27">
-        <f t="shared" ref="C49:C58" si="6">B49</f>
+        <f>B49</f>
         <v>317</v>
       </c>
       <c r="D49" s="43" t="s">
@@ -3204,22 +3228,22 @@
       <c r="E49" s="54" t="s">
         <v>442</v>
       </c>
-      <c r="F49" s="60" t="s">
+      <c r="F49" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="G49" s="61"/>
+      <c r="G49" s="66"/>
       <c r="H49" s="41" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A50" s="61"/>
+      <c r="A50" s="66"/>
       <c r="B50" s="23">
-        <f t="shared" si="5"/>
+        <f>C49+1</f>
         <v>318</v>
       </c>
       <c r="C50" s="23">
-        <f t="shared" si="6"/>
+        <f>B50</f>
         <v>318</v>
       </c>
       <c r="D50" s="23" t="s">
@@ -3228,17 +3252,17 @@
       <c r="E50" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="F50" s="62"/>
-      <c r="G50" s="61"/>
+      <c r="F50" s="67"/>
+      <c r="G50" s="66"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A51" s="61"/>
+      <c r="A51" s="66"/>
       <c r="B51" s="23">
-        <f t="shared" si="5"/>
+        <f>C50+1</f>
         <v>319</v>
       </c>
       <c r="C51" s="23">
-        <f t="shared" si="6"/>
+        <f>B51</f>
         <v>319</v>
       </c>
       <c r="D51" s="23" t="s">
@@ -3247,20 +3271,20 @@
       <c r="E51" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="F51" s="60" t="s">
-        <v>8</v>
-      </c>
-      <c r="G51" s="61"/>
+      <c r="F51" s="65" t="s">
+        <v>8</v>
+      </c>
+      <c r="G51" s="66"/>
       <c r="H51" s="44"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A52" s="61"/>
+      <c r="A52" s="66"/>
       <c r="B52" s="23">
-        <f t="shared" si="5"/>
+        <f>C51+1</f>
         <v>320</v>
       </c>
       <c r="C52" s="23">
-        <f t="shared" si="6"/>
+        <f>B52</f>
         <v>320</v>
       </c>
       <c r="D52" s="23" t="s">
@@ -3269,18 +3293,18 @@
       <c r="E52" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="F52" s="61"/>
-      <c r="G52" s="61"/>
+      <c r="F52" s="66"/>
+      <c r="G52" s="66"/>
       <c r="H52" s="44"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A53" s="61"/>
+      <c r="A53" s="66"/>
       <c r="B53" s="23">
-        <f t="shared" si="5"/>
+        <f>C52+1</f>
         <v>321</v>
       </c>
       <c r="C53" s="23">
-        <f t="shared" si="6"/>
+        <f>B53</f>
         <v>321</v>
       </c>
       <c r="D53" s="23" t="s">
@@ -3289,18 +3313,18 @@
       <c r="E53" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="F53" s="61"/>
-      <c r="G53" s="61"/>
+      <c r="F53" s="66"/>
+      <c r="G53" s="66"/>
       <c r="H53" s="44"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A54" s="61"/>
+      <c r="A54" s="66"/>
       <c r="B54" s="23">
-        <f t="shared" ref="B54:B60" si="7">C53+1</f>
+        <f>C53+1</f>
         <v>322</v>
       </c>
       <c r="C54" s="23">
-        <f t="shared" si="6"/>
+        <f>B54</f>
         <v>322</v>
       </c>
       <c r="D54" s="23" t="s">
@@ -3309,13 +3333,13 @@
       <c r="E54" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="F54" s="61"/>
-      <c r="G54" s="61"/>
+      <c r="F54" s="66"/>
+      <c r="G54" s="66"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A55" s="61"/>
+      <c r="A55" s="66"/>
       <c r="B55" s="23">
-        <f t="shared" si="7"/>
+        <f>C54+1</f>
         <v>323</v>
       </c>
       <c r="C55" s="23">
@@ -3328,17 +3352,17 @@
       <c r="E55" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="F55" s="62"/>
-      <c r="G55" s="61"/>
+      <c r="F55" s="67"/>
+      <c r="G55" s="66"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A56" s="61"/>
+      <c r="A56" s="66"/>
       <c r="B56" s="23">
-        <f t="shared" si="7"/>
+        <f>C55+1</f>
         <v>325</v>
       </c>
       <c r="C56" s="23">
-        <f t="shared" si="6"/>
+        <f>B56</f>
         <v>325</v>
       </c>
       <c r="D56" s="23" t="s">
@@ -3347,19 +3371,19 @@
       <c r="E56" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="F56" s="63" t="s">
+      <c r="F56" s="72" t="s">
         <v>59</v>
       </c>
-      <c r="G56" s="61"/>
+      <c r="G56" s="66"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A57" s="61"/>
+      <c r="A57" s="66"/>
       <c r="B57" s="23">
-        <f t="shared" si="7"/>
+        <f>C56+1</f>
         <v>326</v>
       </c>
       <c r="C57" s="23">
-        <f t="shared" si="6"/>
+        <f>B57</f>
         <v>326</v>
       </c>
       <c r="D57" s="23" t="s">
@@ -3368,17 +3392,17 @@
       <c r="E57" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="F57" s="64"/>
-      <c r="G57" s="61"/>
+      <c r="F57" s="68"/>
+      <c r="G57" s="66"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A58" s="61"/>
+      <c r="A58" s="66"/>
       <c r="B58" s="23">
-        <f t="shared" si="7"/>
+        <f>C57+1</f>
         <v>327</v>
       </c>
       <c r="C58" s="23">
-        <f t="shared" si="6"/>
+        <f>B58</f>
         <v>327</v>
       </c>
       <c r="D58" s="23" t="s">
@@ -3387,13 +3411,13 @@
       <c r="E58" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="F58" s="64"/>
-      <c r="G58" s="61"/>
+      <c r="F58" s="68"/>
+      <c r="G58" s="66"/>
     </row>
     <row r="59" spans="1:8" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A59" s="61"/>
+      <c r="A59" s="66"/>
       <c r="B59" s="23">
-        <f t="shared" si="7"/>
+        <f>C58+1</f>
         <v>328</v>
       </c>
       <c r="C59" s="23">
@@ -3406,13 +3430,13 @@
       <c r="E59" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="F59" s="65"/>
-      <c r="G59" s="61"/>
+      <c r="F59" s="69"/>
+      <c r="G59" s="66"/>
     </row>
     <row r="60" spans="1:8" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A60" s="61"/>
+      <c r="A60" s="66"/>
       <c r="B60" s="27">
-        <f t="shared" si="7"/>
+        <f>C59+1</f>
         <v>330</v>
       </c>
       <c r="C60" s="27">
@@ -3428,13 +3452,13 @@
       <c r="F60" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="G60" s="61"/>
+      <c r="G60" s="66"/>
       <c r="H60" s="41" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A61" s="61"/>
+      <c r="A61" s="66"/>
       <c r="B61" s="27">
         <v>331</v>
       </c>
@@ -3448,21 +3472,21 @@
       <c r="E61" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="F61" s="63" t="s">
+      <c r="F61" s="72" t="s">
         <v>65</v>
       </c>
-      <c r="G61" s="61"/>
+      <c r="G61" s="66"/>
       <c r="H61" s="41" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A62" s="61"/>
+      <c r="A62" s="66"/>
       <c r="B62" s="27">
         <v>332</v>
       </c>
       <c r="C62" s="27">
-        <f t="shared" ref="C62:C76" si="8">B62</f>
+        <f>B62</f>
         <v>332</v>
       </c>
       <c r="D62" s="27" t="s">
@@ -3471,19 +3495,19 @@
       <c r="E62" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="F62" s="64"/>
-      <c r="G62" s="61"/>
+      <c r="F62" s="68"/>
+      <c r="G62" s="66"/>
       <c r="H62" s="41" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A63" s="61"/>
+      <c r="A63" s="66"/>
       <c r="B63" s="27">
         <v>333</v>
       </c>
       <c r="C63" s="27">
-        <f t="shared" si="8"/>
+        <f>B63</f>
         <v>333</v>
       </c>
       <c r="D63" s="27" t="s">
@@ -3492,19 +3516,19 @@
       <c r="E63" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="F63" s="64"/>
-      <c r="G63" s="61"/>
+      <c r="F63" s="68"/>
+      <c r="G63" s="66"/>
       <c r="H63" s="41" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A64" s="61"/>
+      <c r="A64" s="66"/>
       <c r="B64" s="23">
         <v>334</v>
       </c>
       <c r="C64" s="23">
-        <f t="shared" si="8"/>
+        <f>B64</f>
         <v>334</v>
       </c>
       <c r="D64" s="23" t="s">
@@ -3513,16 +3537,16 @@
       <c r="E64" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="F64" s="65"/>
-      <c r="G64" s="61"/>
+      <c r="F64" s="69"/>
+      <c r="G64" s="66"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A65" s="61"/>
+      <c r="A65" s="66"/>
       <c r="B65" s="23">
         <v>335</v>
       </c>
       <c r="C65" s="23">
-        <f t="shared" si="8"/>
+        <f>B65</f>
         <v>335</v>
       </c>
       <c r="D65" s="39" t="s">
@@ -3532,18 +3556,18 @@
         <v>8</v>
       </c>
       <c r="F65" s="34"/>
-      <c r="G65" s="61"/>
+      <c r="G65" s="66"/>
       <c r="H65" s="41" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A66" s="61"/>
+      <c r="A66" s="66"/>
       <c r="B66" s="27">
         <v>336</v>
       </c>
       <c r="C66" s="27">
-        <f t="shared" si="8"/>
+        <f>B66</f>
         <v>336</v>
       </c>
       <c r="D66" s="27" t="s">
@@ -3553,18 +3577,18 @@
         <v>71</v>
       </c>
       <c r="F66" s="34"/>
-      <c r="G66" s="61"/>
+      <c r="G66" s="66"/>
       <c r="H66" s="45" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A67" s="61"/>
+      <c r="A67" s="66"/>
       <c r="B67" s="29">
         <v>337</v>
       </c>
       <c r="C67" s="29">
-        <f t="shared" si="8"/>
+        <f>B67</f>
         <v>337</v>
       </c>
       <c r="D67" s="29" t="s">
@@ -3573,21 +3597,21 @@
       <c r="E67" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="F67" s="66" t="s">
+      <c r="F67" s="73" t="s">
         <v>74</v>
       </c>
-      <c r="G67" s="61"/>
+      <c r="G67" s="66"/>
       <c r="H67" s="44" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A68" s="61"/>
+      <c r="A68" s="66"/>
       <c r="B68" s="29">
         <v>338</v>
       </c>
       <c r="C68" s="29">
-        <f t="shared" si="8"/>
+        <f>B68</f>
         <v>338</v>
       </c>
       <c r="D68" s="29" t="s">
@@ -3596,19 +3620,19 @@
       <c r="E68" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="F68" s="67"/>
-      <c r="G68" s="61"/>
+      <c r="F68" s="74"/>
+      <c r="G68" s="66"/>
       <c r="H68" s="44" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A69" s="61"/>
+      <c r="A69" s="66"/>
       <c r="B69" s="29">
         <v>339</v>
       </c>
       <c r="C69" s="29">
-        <f t="shared" si="8"/>
+        <f>B69</f>
         <v>339</v>
       </c>
       <c r="D69" s="29" t="s">
@@ -3617,19 +3641,19 @@
       <c r="E69" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="F69" s="67"/>
-      <c r="G69" s="61"/>
+      <c r="F69" s="74"/>
+      <c r="G69" s="66"/>
       <c r="H69" s="44" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A70" s="61"/>
+      <c r="A70" s="66"/>
       <c r="B70" s="29">
         <v>340</v>
       </c>
       <c r="C70" s="29">
-        <f t="shared" si="8"/>
+        <f>B70</f>
         <v>340</v>
       </c>
       <c r="D70" s="29" t="s">
@@ -3638,19 +3662,19 @@
       <c r="E70" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="F70" s="67"/>
-      <c r="G70" s="61"/>
+      <c r="F70" s="74"/>
+      <c r="G70" s="66"/>
       <c r="H70" s="44" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A71" s="61"/>
+      <c r="A71" s="66"/>
       <c r="B71" s="29">
         <v>341</v>
       </c>
       <c r="C71" s="29">
-        <f t="shared" si="8"/>
+        <f>B71</f>
         <v>341</v>
       </c>
       <c r="D71" s="29" t="s">
@@ -3659,19 +3683,19 @@
       <c r="E71" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="F71" s="67"/>
-      <c r="G71" s="61"/>
+      <c r="F71" s="74"/>
+      <c r="G71" s="66"/>
       <c r="H71" s="44" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A72" s="61"/>
+      <c r="A72" s="66"/>
       <c r="B72" s="29">
         <v>342</v>
       </c>
       <c r="C72" s="29">
-        <f t="shared" si="8"/>
+        <f>B72</f>
         <v>342</v>
       </c>
       <c r="D72" s="29" t="s">
@@ -3680,19 +3704,19 @@
       <c r="E72" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="F72" s="67"/>
-      <c r="G72" s="61"/>
+      <c r="F72" s="74"/>
+      <c r="G72" s="66"/>
       <c r="H72" s="44" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A73" s="61"/>
+      <c r="A73" s="66"/>
       <c r="B73" s="29">
         <v>343</v>
       </c>
       <c r="C73" s="29">
-        <f t="shared" si="8"/>
+        <f>B73</f>
         <v>343</v>
       </c>
       <c r="D73" s="29" t="s">
@@ -3701,19 +3725,19 @@
       <c r="E73" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="F73" s="67"/>
-      <c r="G73" s="61"/>
+      <c r="F73" s="74"/>
+      <c r="G73" s="66"/>
       <c r="H73" s="44" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A74" s="61"/>
+      <c r="A74" s="66"/>
       <c r="B74" s="29">
         <v>344</v>
       </c>
       <c r="C74" s="29">
-        <f t="shared" si="8"/>
+        <f>B74</f>
         <v>344</v>
       </c>
       <c r="D74" s="29" t="s">
@@ -3722,19 +3746,19 @@
       <c r="E74" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="F74" s="67"/>
-      <c r="G74" s="61"/>
+      <c r="F74" s="74"/>
+      <c r="G74" s="66"/>
       <c r="H74" s="44" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A75" s="61"/>
+      <c r="A75" s="66"/>
       <c r="B75" s="29">
         <v>345</v>
       </c>
       <c r="C75" s="29">
-        <f t="shared" si="8"/>
+        <f>B75</f>
         <v>345</v>
       </c>
       <c r="D75" s="29" t="s">
@@ -3743,19 +3767,19 @@
       <c r="E75" s="46" t="s">
         <v>90</v>
       </c>
-      <c r="F75" s="67"/>
-      <c r="G75" s="61"/>
+      <c r="F75" s="74"/>
+      <c r="G75" s="66"/>
       <c r="H75" s="44" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A76" s="61"/>
+      <c r="A76" s="66"/>
       <c r="B76" s="29">
         <v>346</v>
       </c>
       <c r="C76" s="29">
-        <f t="shared" si="8"/>
+        <f>B76</f>
         <v>346</v>
       </c>
       <c r="D76" s="29" t="s">
@@ -3764,14 +3788,14 @@
       <c r="E76" s="46" t="s">
         <v>92</v>
       </c>
-      <c r="F76" s="68"/>
-      <c r="G76" s="61"/>
+      <c r="F76" s="75"/>
+      <c r="G76" s="66"/>
       <c r="H76" s="44" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A77" s="61"/>
+      <c r="A77" s="66"/>
       <c r="B77" s="27">
         <v>347</v>
       </c>
@@ -3785,13 +3809,13 @@
         <v>94</v>
       </c>
       <c r="F77" s="34"/>
-      <c r="G77" s="61"/>
+      <c r="G77" s="66"/>
       <c r="H77" s="8" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A78" s="61"/>
+      <c r="A78" s="66"/>
       <c r="B78" s="48">
         <v>503</v>
       </c>
@@ -3806,13 +3830,13 @@
         <v>96</v>
       </c>
       <c r="F78" s="34"/>
-      <c r="G78" s="61"/>
+      <c r="G78" s="66"/>
       <c r="H78" s="45" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A79" s="61"/>
+      <c r="A79" s="66"/>
       <c r="B79" s="48">
         <f>C78+1</f>
         <v>505</v>
@@ -3828,13 +3852,13 @@
         <v>98</v>
       </c>
       <c r="F79" s="34"/>
-      <c r="G79" s="61"/>
+      <c r="G79" s="66"/>
       <c r="H79" s="45" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A80" s="61"/>
+      <c r="A80" s="66"/>
       <c r="B80" s="48">
         <v>507</v>
       </c>
@@ -3848,13 +3872,13 @@
         <v>100</v>
       </c>
       <c r="F80" s="34"/>
-      <c r="G80" s="61"/>
+      <c r="G80" s="66"/>
       <c r="H80" s="41" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A81" s="61"/>
+      <c r="A81" s="66"/>
       <c r="B81" s="48">
         <v>508</v>
       </c>
@@ -3868,13 +3892,13 @@
         <v>102</v>
       </c>
       <c r="F81" s="34"/>
-      <c r="G81" s="61"/>
+      <c r="G81" s="66"/>
       <c r="H81" s="41" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A82" s="61"/>
+      <c r="A82" s="66"/>
       <c r="B82" s="48">
         <v>509</v>
       </c>
@@ -3888,13 +3912,13 @@
         <v>104</v>
       </c>
       <c r="F82" s="34"/>
-      <c r="G82" s="61"/>
+      <c r="G82" s="66"/>
       <c r="H82" s="41" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A83" s="61"/>
+      <c r="A83" s="66"/>
       <c r="B83" s="48">
         <v>510</v>
       </c>
@@ -3908,13 +3932,13 @@
         <v>106</v>
       </c>
       <c r="F83" s="34"/>
-      <c r="G83" s="61"/>
+      <c r="G83" s="66"/>
       <c r="H83" s="41" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A84" s="61"/>
+      <c r="A84" s="66"/>
       <c r="B84" s="48">
         <v>511</v>
       </c>
@@ -3928,13 +3952,13 @@
         <v>109</v>
       </c>
       <c r="F84" s="34"/>
-      <c r="G84" s="61"/>
+      <c r="G84" s="66"/>
       <c r="H84" s="45" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A85" s="61"/>
+      <c r="A85" s="66"/>
       <c r="B85" s="48">
         <v>513</v>
       </c>
@@ -3948,13 +3972,13 @@
         <v>111</v>
       </c>
       <c r="F85" s="34"/>
-      <c r="G85" s="61"/>
+      <c r="G85" s="66"/>
       <c r="H85" s="41" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A86" s="61"/>
+      <c r="A86" s="66"/>
       <c r="B86" s="48">
         <v>514</v>
       </c>
@@ -3968,13 +3992,13 @@
         <v>113</v>
       </c>
       <c r="F86" s="34"/>
-      <c r="G86" s="61"/>
+      <c r="G86" s="66"/>
       <c r="H86" s="41" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A87" s="61"/>
+      <c r="A87" s="66"/>
       <c r="B87" s="48">
         <v>515</v>
       </c>
@@ -3988,13 +4012,13 @@
         <v>115</v>
       </c>
       <c r="F87" s="34"/>
-      <c r="G87" s="61"/>
+      <c r="G87" s="66"/>
       <c r="H87" s="41" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A88" s="61"/>
+      <c r="A88" s="66"/>
       <c r="B88" s="48">
         <v>516</v>
       </c>
@@ -4008,13 +4032,13 @@
         <v>117</v>
       </c>
       <c r="F88" s="34"/>
-      <c r="G88" s="61"/>
+      <c r="G88" s="66"/>
       <c r="H88" s="41" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A89" s="61"/>
+      <c r="A89" s="66"/>
       <c r="B89" s="48">
         <v>518</v>
       </c>
@@ -4028,13 +4052,13 @@
         <v>119</v>
       </c>
       <c r="F89" s="34"/>
-      <c r="G89" s="61"/>
+      <c r="G89" s="66"/>
       <c r="H89" s="41" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A90" s="61"/>
+      <c r="A90" s="66"/>
       <c r="B90" s="49">
         <v>519</v>
       </c>
@@ -4048,13 +4072,13 @@
         <v>121</v>
       </c>
       <c r="F90" s="34"/>
-      <c r="G90" s="61"/>
+      <c r="G90" s="66"/>
       <c r="H90" s="41" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A91" s="61"/>
+      <c r="A91" s="66"/>
       <c r="B91" s="49">
         <v>550</v>
       </c>
@@ -4068,10 +4092,10 @@
         <v>451</v>
       </c>
       <c r="F91" s="34"/>
-      <c r="G91" s="61"/>
+      <c r="G91" s="66"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A92" s="61"/>
+      <c r="A92" s="66"/>
       <c r="B92" s="23">
         <v>600</v>
       </c>
@@ -4085,10 +4109,10 @@
         <v>441</v>
       </c>
       <c r="F92" s="34"/>
-      <c r="G92" s="61"/>
+      <c r="G92" s="66"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A93" s="61"/>
+      <c r="A93" s="66"/>
       <c r="B93" s="49">
         <v>602</v>
       </c>
@@ -4102,842 +4126,854 @@
         <v>450</v>
       </c>
       <c r="F93" s="34"/>
-      <c r="G93" s="61"/>
+      <c r="G93" s="66"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A94" s="62"/>
-      <c r="B94" s="41"/>
-      <c r="C94" s="41"/>
-      <c r="D94" s="41"/>
-      <c r="E94" s="41"/>
-      <c r="F94" s="23"/>
-      <c r="G94" s="62"/>
+      <c r="A94" s="66"/>
+      <c r="F94" s="34"/>
+      <c r="G94" s="66"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A95" s="59" t="s">
+      <c r="A95" s="67"/>
+      <c r="B95" s="41"/>
+      <c r="C95" s="41"/>
+      <c r="D95" s="41"/>
+      <c r="E95" s="41"/>
+      <c r="F95" s="23"/>
+      <c r="G95" s="67"/>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A96" s="71" t="s">
         <v>123</v>
       </c>
-      <c r="B95" s="52">
+      <c r="B96" s="52">
         <v>50000</v>
       </c>
-      <c r="C95" s="23">
-        <f t="shared" ref="C95:C96" si="9">B95</f>
+      <c r="C96" s="23">
+        <f t="shared" ref="C96:C97" si="0">B96</f>
         <v>50000</v>
       </c>
-      <c r="D95" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E95" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="F95" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="G95" s="23"/>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A96" s="59"/>
-      <c r="B96" s="52">
-        <f>C95+1</f>
+      <c r="D96" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E96" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="F96" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="G96" s="23"/>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A97" s="71"/>
+      <c r="B97" s="52">
+        <f>C96+1</f>
         <v>50001</v>
       </c>
-      <c r="C96" s="23">
-        <f t="shared" si="9"/>
+      <c r="C97" s="23">
+        <f t="shared" si="0"/>
         <v>50001</v>
       </c>
-      <c r="D96" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E96" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="F96" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="G96" s="23"/>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A97" s="59"/>
-      <c r="B97" s="48">
+      <c r="D97" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E97" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="F97" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="G97" s="23"/>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A98" s="71"/>
+      <c r="B98" s="48">
         <v>50002</v>
       </c>
-      <c r="C97" s="27">
+      <c r="C98" s="27">
         <v>50002</v>
       </c>
-      <c r="D97" s="27" t="s">
+      <c r="D98" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="E97" s="35" t="s">
+      <c r="E98" s="35" t="s">
         <v>125</v>
       </c>
-      <c r="F97" s="23"/>
-      <c r="G97" s="23"/>
-      <c r="H97" s="45" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A98" s="59"/>
-      <c r="B98" s="48">
-        <v>50003</v>
-      </c>
-      <c r="C98" s="27">
-        <f>B98+1</f>
-        <v>50004</v>
-      </c>
-      <c r="D98" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="E98" s="27" t="s">
-        <v>96</v>
-      </c>
-      <c r="F98" s="23" t="s">
-        <v>127</v>
-      </c>
+      <c r="F98" s="23"/>
       <c r="G98" s="23"/>
       <c r="H98" s="45" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A99" s="59"/>
+      <c r="A99" s="71"/>
       <c r="B99" s="48">
-        <f>C98+1</f>
-        <v>50005</v>
+        <v>50003</v>
       </c>
       <c r="C99" s="27">
         <f>B99+1</f>
-        <v>50006</v>
+        <v>50004</v>
       </c>
       <c r="D99" s="27" t="s">
         <v>29</v>
       </c>
       <c r="E99" s="27" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F99" s="23" t="s">
         <v>127</v>
       </c>
       <c r="G99" s="23"/>
       <c r="H99" s="45" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A100" s="59"/>
+      <c r="A100" s="71"/>
       <c r="B100" s="48">
         <f>C99+1</f>
+        <v>50005</v>
+      </c>
+      <c r="C100" s="27">
+        <f>B100+1</f>
+        <v>50006</v>
+      </c>
+      <c r="D100" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="E100" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="F100" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="G100" s="23"/>
+      <c r="H100" s="45" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A101" s="71"/>
+      <c r="B101" s="48">
+        <f>C100+1</f>
         <v>50007</v>
       </c>
-      <c r="C100" s="27">
-        <f>B100</f>
+      <c r="C101" s="27">
+        <f>B101</f>
         <v>50007</v>
-      </c>
-      <c r="D100" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="E100" s="27" t="s">
-        <v>100</v>
-      </c>
-      <c r="F100" s="23"/>
-      <c r="G100" s="42"/>
-      <c r="H100" s="41" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A101" s="59"/>
-      <c r="B101" s="48">
-        <f t="shared" ref="B101:B106" si="10">C100+1</f>
-        <v>50008</v>
-      </c>
-      <c r="C101" s="27">
-        <f t="shared" ref="C101:C106" si="11">B101</f>
-        <v>50008</v>
       </c>
       <c r="D101" s="27" t="s">
         <v>55</v>
       </c>
       <c r="E101" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="F101" s="23"/>
+      <c r="G101" s="42"/>
+      <c r="H101" s="41" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A102" s="71"/>
+      <c r="B102" s="48">
+        <f t="shared" ref="B102:B107" si="1">C101+1</f>
+        <v>50008</v>
+      </c>
+      <c r="C102" s="27">
+        <f t="shared" ref="C102:C107" si="2">B102</f>
+        <v>50008</v>
+      </c>
+      <c r="D102" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="E102" s="27" t="s">
         <v>102</v>
-      </c>
-      <c r="F101" s="23"/>
-      <c r="G101" s="23"/>
-      <c r="H101" s="41" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A102" s="59"/>
-      <c r="B102" s="48">
-        <f t="shared" si="10"/>
-        <v>50009</v>
-      </c>
-      <c r="C102" s="27">
-        <f t="shared" si="11"/>
-        <v>50009</v>
-      </c>
-      <c r="D102" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="E102" s="27" t="s">
-        <v>104</v>
       </c>
       <c r="F102" s="23"/>
       <c r="G102" s="23"/>
       <c r="H102" s="41" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A103" s="59"/>
+      <c r="A103" s="71"/>
       <c r="B103" s="48">
-        <f t="shared" si="10"/>
-        <v>50010</v>
+        <f t="shared" si="1"/>
+        <v>50009</v>
       </c>
       <c r="C103" s="27">
-        <f t="shared" si="11"/>
-        <v>50010</v>
+        <f t="shared" si="2"/>
+        <v>50009</v>
       </c>
       <c r="D103" s="27" t="s">
         <v>9</v>
       </c>
       <c r="E103" s="27" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F103" s="23"/>
       <c r="G103" s="23"/>
       <c r="H103" s="41" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A104" s="59"/>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A104" s="71"/>
       <c r="B104" s="48">
-        <f t="shared" si="10"/>
-        <v>50011</v>
+        <f t="shared" si="1"/>
+        <v>50010</v>
       </c>
       <c r="C104" s="27">
-        <f>B104+1</f>
-        <v>50012</v>
+        <f t="shared" si="2"/>
+        <v>50010</v>
       </c>
       <c r="D104" s="27" t="s">
-        <v>108</v>
-      </c>
-      <c r="E104" s="37" t="s">
-        <v>109</v>
+        <v>9</v>
+      </c>
+      <c r="E104" s="27" t="s">
+        <v>106</v>
       </c>
       <c r="F104" s="23"/>
       <c r="G104" s="23"/>
-      <c r="H104" s="45" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A105" s="59"/>
+      <c r="H104" s="41" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="A105" s="71"/>
       <c r="B105" s="48">
-        <f t="shared" si="10"/>
-        <v>50013</v>
+        <f t="shared" si="1"/>
+        <v>50011</v>
       </c>
       <c r="C105" s="27">
-        <f t="shared" si="11"/>
-        <v>50013</v>
+        <f>B105+1</f>
+        <v>50012</v>
       </c>
       <c r="D105" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="E105" s="27" t="s">
-        <v>111</v>
+        <v>108</v>
+      </c>
+      <c r="E105" s="37" t="s">
+        <v>109</v>
       </c>
       <c r="F105" s="23"/>
       <c r="G105" s="23"/>
-      <c r="H105" s="41" t="s">
-        <v>135</v>
+      <c r="H105" s="45" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A106" s="59"/>
+      <c r="A106" s="71"/>
       <c r="B106" s="48">
-        <f t="shared" si="10"/>
-        <v>50014</v>
+        <f t="shared" si="1"/>
+        <v>50013</v>
       </c>
       <c r="C106" s="27">
-        <f t="shared" si="11"/>
-        <v>50014</v>
+        <f t="shared" si="2"/>
+        <v>50013</v>
       </c>
       <c r="D106" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="E106" s="37" t="s">
-        <v>113</v>
+      <c r="E106" s="27" t="s">
+        <v>111</v>
       </c>
       <c r="F106" s="23"/>
       <c r="G106" s="23"/>
       <c r="H106" s="41" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A107" s="59"/>
+      <c r="A107" s="71"/>
       <c r="B107" s="48">
-        <v>50015</v>
+        <f t="shared" si="1"/>
+        <v>50014</v>
       </c>
       <c r="C107" s="27">
-        <v>50015</v>
+        <f t="shared" si="2"/>
+        <v>50014</v>
       </c>
       <c r="D107" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="E107" s="27" t="s">
-        <v>115</v>
+      <c r="E107" s="37" t="s">
+        <v>113</v>
       </c>
       <c r="F107" s="23"/>
       <c r="G107" s="23"/>
       <c r="H107" s="41" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A108" s="59"/>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A108" s="71"/>
       <c r="B108" s="48">
-        <v>50016</v>
+        <v>50015</v>
       </c>
       <c r="C108" s="27">
-        <f>B108+1</f>
-        <v>50017</v>
+        <v>50015</v>
       </c>
       <c r="D108" s="27" t="s">
-        <v>108</v>
-      </c>
-      <c r="E108" s="37" t="s">
-        <v>117</v>
+        <v>55</v>
+      </c>
+      <c r="E108" s="27" t="s">
+        <v>115</v>
       </c>
       <c r="F108" s="23"/>
       <c r="G108" s="23"/>
       <c r="H108" s="41" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A109" s="59"/>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="A109" s="71"/>
       <c r="B109" s="48">
-        <v>50018</v>
+        <v>50016</v>
       </c>
       <c r="C109" s="27">
-        <v>50018</v>
+        <f>B109+1</f>
+        <v>50017</v>
       </c>
       <c r="D109" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="E109" s="27" t="s">
-        <v>119</v>
+        <v>108</v>
+      </c>
+      <c r="E109" s="37" t="s">
+        <v>117</v>
       </c>
       <c r="F109" s="23"/>
       <c r="G109" s="23"/>
       <c r="H109" s="41" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A110" s="71"/>
+      <c r="B110" s="48">
+        <v>50018</v>
+      </c>
+      <c r="C110" s="27">
+        <v>50018</v>
+      </c>
+      <c r="D110" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="E110" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="F110" s="23"/>
+      <c r="G110" s="23"/>
+      <c r="H110" s="41" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A110" s="59"/>
-      <c r="B110" s="49">
-        <f>C109+1</f>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A111" s="71"/>
+      <c r="B111" s="49">
+        <f>C110+1</f>
         <v>50019</v>
       </c>
-      <c r="C110" s="50">
-        <f>B110</f>
+      <c r="C111" s="50">
+        <f>B111</f>
         <v>50019</v>
       </c>
-      <c r="D110" s="50" t="s">
+      <c r="D111" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="E110" s="51" t="s">
+      <c r="E111" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="F110" s="24"/>
-      <c r="G110" s="24"/>
-      <c r="H110" s="41" t="s">
+      <c r="F111" s="24"/>
+      <c r="G111" s="24"/>
+      <c r="H111" s="41" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A111" s="59"/>
-      <c r="B111" s="48">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A112" s="71"/>
+      <c r="B112" s="48">
         <v>50020</v>
       </c>
-      <c r="C111" s="27">
+      <c r="C112" s="27">
         <v>50020</v>
-      </c>
-      <c r="D111" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="E111" s="27" t="s">
-        <v>141</v>
-      </c>
-      <c r="F111" s="27"/>
-      <c r="G111" s="27"/>
-      <c r="H111" s="53" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A112" s="59"/>
-      <c r="B112" s="48">
-        <v>50021</v>
-      </c>
-      <c r="C112" s="27">
-        <v>50021</v>
       </c>
       <c r="D112" s="27" t="s">
         <v>9</v>
       </c>
       <c r="E112" s="27" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F112" s="27"/>
       <c r="G112" s="27"/>
       <c r="H112" s="53" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A113" s="59"/>
+      <c r="A113" s="71"/>
       <c r="B113" s="48">
-        <v>50022</v>
+        <v>50021</v>
       </c>
       <c r="C113" s="27">
-        <v>50022</v>
+        <v>50021</v>
       </c>
       <c r="D113" s="27" t="s">
         <v>9</v>
       </c>
       <c r="E113" s="27" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F113" s="27"/>
       <c r="G113" s="27"/>
       <c r="H113" s="53" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A114" s="59"/>
+      <c r="A114" s="71"/>
       <c r="B114" s="48">
-        <v>50023</v>
+        <v>50022</v>
       </c>
       <c r="C114" s="27">
-        <v>50023</v>
+        <v>50022</v>
       </c>
       <c r="D114" s="27" t="s">
         <v>9</v>
       </c>
       <c r="E114" s="27" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F114" s="27"/>
       <c r="G114" s="27"/>
       <c r="H114" s="53" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A115" s="59"/>
+      <c r="A115" s="71"/>
       <c r="B115" s="48">
-        <v>50024</v>
+        <v>50023</v>
       </c>
       <c r="C115" s="27">
-        <v>50024</v>
+        <v>50023</v>
       </c>
       <c r="D115" s="27" t="s">
         <v>9</v>
       </c>
       <c r="E115" s="27" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F115" s="27"/>
       <c r="G115" s="27"/>
       <c r="H115" s="53" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A116" s="59"/>
+      <c r="A116" s="71"/>
       <c r="B116" s="48">
-        <v>50025</v>
+        <v>50024</v>
       </c>
       <c r="C116" s="27">
-        <v>50025</v>
+        <v>50024</v>
       </c>
       <c r="D116" s="27" t="s">
         <v>9</v>
       </c>
       <c r="E116" s="27" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F116" s="27"/>
       <c r="G116" s="27"/>
       <c r="H116" s="53" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A117" s="59"/>
+      <c r="A117" s="71"/>
       <c r="B117" s="48">
-        <v>50026</v>
+        <v>50025</v>
       </c>
       <c r="C117" s="27">
-        <v>50026</v>
+        <v>50025</v>
       </c>
       <c r="D117" s="27" t="s">
         <v>9</v>
       </c>
       <c r="E117" s="27" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F117" s="27"/>
       <c r="G117" s="27"/>
       <c r="H117" s="53" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A118" s="59"/>
+      <c r="A118" s="71"/>
       <c r="B118" s="48">
-        <v>50027</v>
+        <v>50026</v>
       </c>
       <c r="C118" s="27">
-        <v>50027</v>
+        <v>50026</v>
       </c>
       <c r="D118" s="27" t="s">
         <v>9</v>
       </c>
       <c r="E118" s="27" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F118" s="27"/>
       <c r="G118" s="27"/>
       <c r="H118" s="53" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A119" s="59"/>
+      <c r="A119" s="71"/>
       <c r="B119" s="48">
-        <v>50028</v>
+        <v>50027</v>
       </c>
       <c r="C119" s="27">
-        <v>50028</v>
+        <v>50027</v>
       </c>
       <c r="D119" s="27" t="s">
         <v>9</v>
       </c>
       <c r="E119" s="27" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F119" s="27"/>
       <c r="G119" s="27"/>
       <c r="H119" s="53" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A120" s="59"/>
+      <c r="A120" s="71"/>
       <c r="B120" s="48">
-        <v>50029</v>
+        <v>50028</v>
       </c>
       <c r="C120" s="27">
-        <v>50029</v>
+        <v>50028</v>
       </c>
       <c r="D120" s="27" t="s">
         <v>9</v>
       </c>
       <c r="E120" s="27" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F120" s="27"/>
       <c r="G120" s="27"/>
       <c r="H120" s="53" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A121" s="59"/>
+      <c r="A121" s="71"/>
       <c r="B121" s="48">
-        <v>50030</v>
+        <v>50029</v>
       </c>
       <c r="C121" s="27">
-        <v>50030</v>
+        <v>50029</v>
       </c>
       <c r="D121" s="27" t="s">
         <v>9</v>
       </c>
       <c r="E121" s="27" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F121" s="27"/>
       <c r="G121" s="27"/>
       <c r="H121" s="53" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A122" s="59"/>
+      <c r="A122" s="71"/>
       <c r="B122" s="48">
-        <v>50031</v>
+        <v>50030</v>
       </c>
       <c r="C122" s="27">
-        <v>50031</v>
+        <v>50030</v>
       </c>
       <c r="D122" s="27" t="s">
         <v>9</v>
       </c>
       <c r="E122" s="27" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F122" s="27"/>
       <c r="G122" s="27"/>
       <c r="H122" s="53" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A123" s="59"/>
+      <c r="A123" s="71"/>
       <c r="B123" s="48">
-        <v>50032</v>
+        <v>50031</v>
       </c>
       <c r="C123" s="27">
-        <v>50032</v>
+        <v>50031</v>
       </c>
       <c r="D123" s="27" t="s">
         <v>9</v>
       </c>
       <c r="E123" s="27" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F123" s="27"/>
       <c r="G123" s="27"/>
       <c r="H123" s="53" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A124" s="59"/>
+      <c r="A124" s="71"/>
       <c r="B124" s="48">
-        <v>50033</v>
+        <v>50032</v>
       </c>
       <c r="C124" s="27">
-        <v>50033</v>
+        <v>50032</v>
       </c>
       <c r="D124" s="27" t="s">
         <v>9</v>
       </c>
       <c r="E124" s="27" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F124" s="27"/>
       <c r="G124" s="27"/>
       <c r="H124" s="53" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A125" s="59"/>
+      <c r="A125" s="71"/>
       <c r="B125" s="48">
-        <v>50034</v>
+        <v>50033</v>
       </c>
       <c r="C125" s="27">
-        <v>50034</v>
+        <v>50033</v>
       </c>
       <c r="D125" s="27" t="s">
         <v>9</v>
       </c>
       <c r="E125" s="27" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F125" s="27"/>
       <c r="G125" s="27"/>
       <c r="H125" s="53" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A126" s="59"/>
+      <c r="A126" s="71"/>
       <c r="B126" s="48">
-        <v>50035</v>
+        <v>50034</v>
       </c>
       <c r="C126" s="27">
-        <v>50035</v>
+        <v>50034</v>
       </c>
       <c r="D126" s="27" t="s">
         <v>9</v>
       </c>
       <c r="E126" s="27" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F126" s="27"/>
       <c r="G126" s="27"/>
       <c r="H126" s="53" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A127" s="59"/>
+      <c r="A127" s="71"/>
       <c r="B127" s="48">
-        <v>50036</v>
+        <v>50035</v>
       </c>
       <c r="C127" s="27">
-        <v>50036</v>
+        <v>50035</v>
       </c>
       <c r="D127" s="27" t="s">
         <v>9</v>
       </c>
       <c r="E127" s="27" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F127" s="27"/>
       <c r="G127" s="27"/>
       <c r="H127" s="53" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A128" s="59"/>
+      <c r="A128" s="71"/>
       <c r="B128" s="48">
-        <v>50037</v>
+        <v>50036</v>
       </c>
       <c r="C128" s="27">
-        <v>50037</v>
+        <v>50036</v>
       </c>
       <c r="D128" s="27" t="s">
         <v>9</v>
       </c>
       <c r="E128" s="27" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F128" s="27"/>
       <c r="G128" s="27"/>
       <c r="H128" s="53" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A129" s="59"/>
+      <c r="A129" s="71"/>
       <c r="B129" s="48">
-        <v>50038</v>
+        <v>50037</v>
       </c>
       <c r="C129" s="27">
-        <v>50038</v>
+        <v>50037</v>
       </c>
       <c r="D129" s="27" t="s">
         <v>9</v>
       </c>
       <c r="E129" s="27" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F129" s="27"/>
       <c r="G129" s="27"/>
       <c r="H129" s="53" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A130" s="71"/>
+      <c r="B130" s="48">
+        <v>50038</v>
+      </c>
+      <c r="C130" s="27">
+        <v>50038</v>
+      </c>
+      <c r="D130" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E130" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="F130" s="27"/>
+      <c r="G130" s="27"/>
+      <c r="H130" s="53" t="s">
         <v>178</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B130" s="39">
-        <v>50050</v>
-      </c>
-      <c r="C130" s="27">
-        <f>B130</f>
-        <v>50050</v>
-      </c>
-      <c r="D130" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="E130" s="54" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B131" s="39">
-        <v>50051</v>
+        <v>50050</v>
       </c>
       <c r="C131" s="27">
-        <f t="shared" ref="C131" si="12">B131</f>
-        <v>50051</v>
+        <f>B131</f>
+        <v>50050</v>
       </c>
       <c r="D131" s="27" t="s">
         <v>55</v>
       </c>
       <c r="E131" s="54" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B132" s="39">
-        <v>50052</v>
+        <v>50051</v>
       </c>
       <c r="C132" s="27">
-        <f t="shared" ref="C132" si="13">B132</f>
-        <v>50052</v>
+        <f t="shared" ref="C132" si="3">B132</f>
+        <v>50051</v>
       </c>
       <c r="D132" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="E132" s="57" t="s">
+      <c r="E132" s="54" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B133" s="39">
+        <v>50052</v>
+      </c>
+      <c r="C133" s="27">
+        <f t="shared" ref="C133" si="4">B133</f>
+        <v>50052</v>
+      </c>
+      <c r="D133" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="E133" s="57" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B133" s="90">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B134" s="61">
         <v>50053</v>
       </c>
-      <c r="C133" s="90">
+      <c r="C134" s="61">
         <v>50053</v>
       </c>
-      <c r="D133" s="88" t="s">
+      <c r="D134" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="E133" s="89" t="s">
+      <c r="E134" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="F133" s="88"/>
-      <c r="G133" s="90"/>
-      <c r="H133" s="91" t="s">
+      <c r="F134" s="59"/>
+      <c r="G134" s="61"/>
+      <c r="H134" s="62" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B134" s="90"/>
-      <c r="C134" s="90"/>
-      <c r="D134" s="88"/>
-      <c r="E134" s="89"/>
-      <c r="F134" s="90"/>
-      <c r="G134" s="90"/>
-      <c r="H134" s="91"/>
-    </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B135" s="39">
+      <c r="B135" s="61"/>
+      <c r="C135" s="61"/>
+      <c r="D135" s="59"/>
+      <c r="E135" s="60"/>
+      <c r="F135" s="61"/>
+      <c r="G135" s="61"/>
+      <c r="H135" s="62"/>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B136" s="39">
+        <v>51000</v>
+      </c>
+      <c r="C136" s="39">
+        <v>51000</v>
+      </c>
+      <c r="D136" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="E136" s="57" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B137" s="39">
         <v>60002</v>
       </c>
-      <c r="C135" s="39">
+      <c r="C137" s="39">
         <v>60002</v>
       </c>
-      <c r="D135" s="27" t="s">
+      <c r="D137" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="E135" s="58" t="s">
+      <c r="E137" s="58" t="s">
         <v>450</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="17">
-    <mergeCell ref="G4:G20"/>
-    <mergeCell ref="G21:G35"/>
-    <mergeCell ref="G36:G94"/>
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="A4:A20"/>
-    <mergeCell ref="A21:A35"/>
-    <mergeCell ref="A36:A94"/>
-    <mergeCell ref="A95:A129"/>
+    <mergeCell ref="A96:A130"/>
     <mergeCell ref="F36:F39"/>
     <mergeCell ref="F40:F43"/>
     <mergeCell ref="F44:F45"/>
@@ -4947,6 +4983,13 @@
     <mergeCell ref="F56:F59"/>
     <mergeCell ref="F61:F64"/>
     <mergeCell ref="F67:F76"/>
+    <mergeCell ref="G4:G20"/>
+    <mergeCell ref="G21:G35"/>
+    <mergeCell ref="G36:G95"/>
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="A4:A20"/>
+    <mergeCell ref="A21:A35"/>
+    <mergeCell ref="A36:A95"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4957,10 +5000,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F98"/>
+  <dimension ref="A1:F99"/>
   <sheetViews>
-    <sheetView topLeftCell="A81" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C89" sqref="C89"/>
+    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D90" sqref="D90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -4974,20 +5017,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A2" s="69"/>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
+      <c r="A2" s="70"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="23" t="s">
@@ -5005,7 +5048,7 @@
       <c r="E3" s="23"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="65" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="23">
@@ -5015,12 +5058,12 @@
         <v>10</v>
       </c>
       <c r="D4" s="23"/>
-      <c r="E4" s="60" t="s">
+      <c r="E4" s="65" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A5" s="61"/>
+      <c r="A5" s="66"/>
       <c r="B5" s="23">
         <v>2</v>
       </c>
@@ -5030,10 +5073,10 @@
       <c r="D5" s="23" t="s">
         <v>181</v>
       </c>
-      <c r="E5" s="61"/>
+      <c r="E5" s="66"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A6" s="61"/>
+      <c r="A6" s="66"/>
       <c r="B6" s="23">
         <v>3</v>
       </c>
@@ -5041,10 +5084,10 @@
         <v>182</v>
       </c>
       <c r="D6" s="23"/>
-      <c r="E6" s="61"/>
+      <c r="E6" s="66"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A7" s="61"/>
+      <c r="A7" s="66"/>
       <c r="B7" s="23">
         <v>4</v>
       </c>
@@ -5052,10 +5095,10 @@
         <v>10</v>
       </c>
       <c r="D7" s="23"/>
-      <c r="E7" s="61"/>
+      <c r="E7" s="66"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A8" s="61"/>
+      <c r="A8" s="66"/>
       <c r="B8" s="23">
         <v>5</v>
       </c>
@@ -5063,10 +5106,10 @@
         <v>10</v>
       </c>
       <c r="D8" s="23"/>
-      <c r="E8" s="61"/>
+      <c r="E8" s="66"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A9" s="61"/>
+      <c r="A9" s="66"/>
       <c r="B9" s="23">
         <v>6</v>
       </c>
@@ -5074,10 +5117,10 @@
         <v>10</v>
       </c>
       <c r="D9" s="23"/>
-      <c r="E9" s="61"/>
+      <c r="E9" s="66"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A10" s="61"/>
+      <c r="A10" s="66"/>
       <c r="B10" s="23">
         <v>7</v>
       </c>
@@ -5085,10 +5128,10 @@
         <v>10</v>
       </c>
       <c r="D10" s="23"/>
-      <c r="E10" s="61"/>
+      <c r="E10" s="66"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A11" s="61"/>
+      <c r="A11" s="66"/>
       <c r="B11" s="23">
         <v>8</v>
       </c>
@@ -5098,10 +5141,10 @@
       <c r="D11" s="23" t="s">
         <v>184</v>
       </c>
-      <c r="E11" s="61"/>
+      <c r="E11" s="66"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A12" s="61"/>
+      <c r="A12" s="66"/>
       <c r="B12" s="23">
         <v>9</v>
       </c>
@@ -5109,13 +5152,13 @@
         <v>185</v>
       </c>
       <c r="D12" s="28"/>
-      <c r="E12" s="61"/>
+      <c r="E12" s="66"/>
       <c r="F12" s="8" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A13" s="61"/>
+      <c r="A13" s="66"/>
       <c r="B13" s="23">
         <v>10</v>
       </c>
@@ -5123,13 +5166,13 @@
         <v>187</v>
       </c>
       <c r="D13" s="28"/>
-      <c r="E13" s="61"/>
+      <c r="E13" s="66"/>
       <c r="F13" s="8" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A14" s="61"/>
+      <c r="A14" s="66"/>
       <c r="B14" s="23">
         <v>11</v>
       </c>
@@ -5137,13 +5180,13 @@
         <v>189</v>
       </c>
       <c r="D14" s="28"/>
-      <c r="E14" s="61"/>
+      <c r="E14" s="66"/>
       <c r="F14" s="8" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A15" s="61"/>
+      <c r="A15" s="66"/>
       <c r="B15" s="23">
         <v>12</v>
       </c>
@@ -5151,13 +5194,13 @@
         <v>191</v>
       </c>
       <c r="D15" s="28"/>
-      <c r="E15" s="61"/>
+      <c r="E15" s="66"/>
       <c r="F15" s="8" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A16" s="61"/>
+      <c r="A16" s="66"/>
       <c r="B16" s="23">
         <v>13</v>
       </c>
@@ -5165,13 +5208,13 @@
         <v>193</v>
       </c>
       <c r="D16" s="28"/>
-      <c r="E16" s="61"/>
+      <c r="E16" s="66"/>
       <c r="F16" s="8" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A17" s="61"/>
+      <c r="A17" s="66"/>
       <c r="B17" s="23">
         <v>14</v>
       </c>
@@ -5179,13 +5222,13 @@
         <v>195</v>
       </c>
       <c r="D17" s="28"/>
-      <c r="E17" s="61"/>
+      <c r="E17" s="66"/>
       <c r="F17" s="8" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A18" s="61"/>
+      <c r="A18" s="66"/>
       <c r="B18" s="23">
         <v>15</v>
       </c>
@@ -5193,13 +5236,13 @@
         <v>197</v>
       </c>
       <c r="D18" s="28"/>
-      <c r="E18" s="61"/>
+      <c r="E18" s="66"/>
       <c r="F18" s="8" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A19" s="61"/>
+      <c r="A19" s="66"/>
       <c r="B19" s="23">
         <v>16</v>
       </c>
@@ -5207,13 +5250,13 @@
         <v>199</v>
       </c>
       <c r="D19" s="28"/>
-      <c r="E19" s="61"/>
+      <c r="E19" s="66"/>
       <c r="F19" s="8" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A20" s="61"/>
+      <c r="A20" s="66"/>
       <c r="B20" s="23">
         <v>17</v>
       </c>
@@ -5221,13 +5264,13 @@
         <v>201</v>
       </c>
       <c r="D20" s="28"/>
-      <c r="E20" s="61"/>
+      <c r="E20" s="66"/>
       <c r="F20" s="8" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A21" s="62"/>
+      <c r="A21" s="67"/>
       <c r="B21" s="23">
         <v>18</v>
       </c>
@@ -5235,10 +5278,10 @@
         <v>10</v>
       </c>
       <c r="D21" s="23"/>
-      <c r="E21" s="62"/>
+      <c r="E21" s="67"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A22" s="69" t="s">
+      <c r="A22" s="65" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="23">
@@ -5247,10 +5290,10 @@
       <c r="C22" s="27" t="s">
         <v>203</v>
       </c>
-      <c r="D22" s="60" t="s">
+      <c r="D22" s="65" t="s">
         <v>204</v>
       </c>
-      <c r="E22" s="64" t="s">
+      <c r="E22" s="68" t="s">
         <v>21</v>
       </c>
       <c r="F22" s="8" t="s">
@@ -5258,7 +5301,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A23" s="69"/>
+      <c r="A23" s="66"/>
       <c r="B23" s="23">
         <f>B22+1</f>
         <v>101</v>
@@ -5266,14 +5309,14 @@
       <c r="C23" s="27" t="s">
         <v>206</v>
       </c>
-      <c r="D23" s="61"/>
-      <c r="E23" s="64"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="68"/>
       <c r="F23" s="8" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A24" s="69"/>
+      <c r="A24" s="66"/>
       <c r="B24" s="23">
         <f t="shared" ref="B24:B32" si="0">B23+1</f>
         <v>102</v>
@@ -5281,14 +5324,14 @@
       <c r="C24" s="29" t="s">
         <v>208</v>
       </c>
-      <c r="D24" s="61"/>
-      <c r="E24" s="64"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="68"/>
       <c r="F24" s="21" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A25" s="69"/>
+      <c r="A25" s="66"/>
       <c r="B25" s="23">
         <f t="shared" si="0"/>
         <v>103</v>
@@ -5296,14 +5339,14 @@
       <c r="C25" s="29" t="s">
         <v>210</v>
       </c>
-      <c r="D25" s="61"/>
-      <c r="E25" s="64"/>
+      <c r="D25" s="66"/>
+      <c r="E25" s="68"/>
       <c r="F25" s="21" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A26" s="69"/>
+      <c r="A26" s="66"/>
       <c r="B26" s="23">
         <f t="shared" si="0"/>
         <v>104</v>
@@ -5311,11 +5354,11 @@
       <c r="C26" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D26" s="62"/>
-      <c r="E26" s="64"/>
+      <c r="D26" s="67"/>
+      <c r="E26" s="68"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A27" s="69"/>
+      <c r="A27" s="66"/>
       <c r="B27" s="23">
         <f t="shared" si="0"/>
         <v>105</v>
@@ -5324,10 +5367,10 @@
         <v>8</v>
       </c>
       <c r="D27" s="24"/>
-      <c r="E27" s="64"/>
+      <c r="E27" s="68"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A28" s="69"/>
+      <c r="A28" s="66"/>
       <c r="B28" s="23">
         <f t="shared" si="0"/>
         <v>106</v>
@@ -5336,10 +5379,10 @@
         <v>8</v>
       </c>
       <c r="D28" s="25"/>
-      <c r="E28" s="64"/>
+      <c r="E28" s="68"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A29" s="69"/>
+      <c r="A29" s="66"/>
       <c r="B29" s="23">
         <f t="shared" si="0"/>
         <v>107</v>
@@ -5348,13 +5391,13 @@
         <v>212</v>
       </c>
       <c r="D29" s="23"/>
-      <c r="E29" s="64"/>
+      <c r="E29" s="68"/>
       <c r="F29" s="8" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A30" s="69"/>
+      <c r="A30" s="66"/>
       <c r="B30" s="23">
         <f t="shared" si="0"/>
         <v>108</v>
@@ -5365,13 +5408,13 @@
       <c r="D30" s="29" t="s">
         <v>215</v>
       </c>
-      <c r="E30" s="64"/>
+      <c r="E30" s="68"/>
       <c r="F30" s="21" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A31" s="69"/>
+      <c r="A31" s="66"/>
       <c r="B31" s="23">
         <f t="shared" si="0"/>
         <v>109</v>
@@ -5380,13 +5423,13 @@
         <v>217</v>
       </c>
       <c r="D31" s="29"/>
-      <c r="E31" s="64"/>
+      <c r="E31" s="68"/>
       <c r="F31" s="21" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A32" s="69"/>
+      <c r="A32" s="66"/>
       <c r="B32" s="23">
         <f t="shared" si="0"/>
         <v>110</v>
@@ -5395,13 +5438,13 @@
         <v>219</v>
       </c>
       <c r="D32" s="23"/>
-      <c r="E32" s="64"/>
+      <c r="E32" s="68"/>
       <c r="F32" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A33" s="69"/>
+      <c r="A33" s="66"/>
       <c r="B33" s="23">
         <v>111</v>
       </c>
@@ -5409,13 +5452,13 @@
         <v>220</v>
       </c>
       <c r="D33" s="28"/>
-      <c r="E33" s="64"/>
+      <c r="E33" s="68"/>
       <c r="F33" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A34" s="69"/>
+      <c r="A34" s="66"/>
       <c r="B34" s="23">
         <v>112</v>
       </c>
@@ -5425,13 +5468,13 @@
       <c r="D34" s="28" t="s">
         <v>222</v>
       </c>
-      <c r="E34" s="64"/>
+      <c r="E34" s="68"/>
       <c r="F34" s="8" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A35" s="69"/>
+      <c r="A35" s="66"/>
       <c r="B35" s="23">
         <v>113</v>
       </c>
@@ -5441,13 +5484,13 @@
       <c r="D35" s="28" t="s">
         <v>225</v>
       </c>
-      <c r="E35" s="64"/>
+      <c r="E35" s="68"/>
       <c r="F35" s="8" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A36" s="69"/>
+      <c r="A36" s="66"/>
       <c r="B36" s="23">
         <v>114</v>
       </c>
@@ -5455,13 +5498,13 @@
         <v>227</v>
       </c>
       <c r="D36" s="28"/>
-      <c r="E36" s="64"/>
+      <c r="E36" s="68"/>
       <c r="F36" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A37" s="69"/>
+      <c r="A37" s="66"/>
       <c r="B37" s="23">
         <v>115</v>
       </c>
@@ -5471,13 +5514,13 @@
       <c r="D37" s="28" t="s">
         <v>229</v>
       </c>
-      <c r="E37" s="64"/>
+      <c r="E37" s="68"/>
       <c r="F37" s="8" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A38" s="69"/>
+      <c r="A38" s="66"/>
       <c r="B38" s="23">
         <v>116</v>
       </c>
@@ -5487,13 +5530,13 @@
       <c r="D38" s="28" t="s">
         <v>232</v>
       </c>
-      <c r="E38" s="64"/>
+      <c r="E38" s="68"/>
       <c r="F38" s="8" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A39" s="69"/>
+      <c r="A39" s="66"/>
       <c r="B39" s="23">
         <v>117</v>
       </c>
@@ -5501,13 +5544,13 @@
         <v>234</v>
       </c>
       <c r="D39" s="28"/>
-      <c r="E39" s="64"/>
+      <c r="E39" s="68"/>
       <c r="F39" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A40" s="69"/>
+      <c r="A40" s="66"/>
       <c r="B40" s="23">
         <v>118</v>
       </c>
@@ -5517,13 +5560,13 @@
       <c r="D40" s="28" t="s">
         <v>236</v>
       </c>
-      <c r="E40" s="64"/>
+      <c r="E40" s="68"/>
       <c r="F40" s="8" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A41" s="69"/>
+      <c r="A41" s="66"/>
       <c r="B41" s="23">
         <v>119</v>
       </c>
@@ -5531,13 +5574,13 @@
         <v>238</v>
       </c>
       <c r="D41" s="28"/>
-      <c r="E41" s="64"/>
+      <c r="E41" s="68"/>
       <c r="F41" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A42" s="69"/>
+      <c r="A42" s="66"/>
       <c r="B42" s="23">
         <v>120</v>
       </c>
@@ -5547,13 +5590,13 @@
       <c r="D42" s="28" t="s">
         <v>240</v>
       </c>
-      <c r="E42" s="64"/>
+      <c r="E42" s="68"/>
       <c r="F42" s="8" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A43" s="69"/>
+      <c r="A43" s="66"/>
       <c r="B43" s="23">
         <v>121</v>
       </c>
@@ -5561,13 +5604,13 @@
         <v>242</v>
       </c>
       <c r="D43" s="28"/>
-      <c r="E43" s="64"/>
+      <c r="E43" s="68"/>
       <c r="F43" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A44" s="69"/>
+      <c r="A44" s="66"/>
       <c r="B44" s="23">
         <v>122</v>
       </c>
@@ -5577,13 +5620,13 @@
       <c r="D44" s="28" t="s">
         <v>244</v>
       </c>
-      <c r="E44" s="64"/>
+      <c r="E44" s="68"/>
       <c r="F44" s="8" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A45" s="69"/>
+      <c r="A45" s="66"/>
       <c r="B45" s="23">
         <v>123</v>
       </c>
@@ -5591,13 +5634,13 @@
         <v>246</v>
       </c>
       <c r="D45" s="28"/>
-      <c r="E45" s="64"/>
+      <c r="E45" s="68"/>
       <c r="F45" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A46" s="69"/>
+      <c r="A46" s="66"/>
       <c r="B46" s="23">
         <v>124</v>
       </c>
@@ -5607,13 +5650,13 @@
       <c r="D46" s="28" t="s">
         <v>248</v>
       </c>
-      <c r="E46" s="64"/>
+      <c r="E46" s="68"/>
       <c r="F46" s="8" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A47" s="69"/>
+      <c r="A47" s="66"/>
       <c r="B47" s="23">
         <v>125</v>
       </c>
@@ -5621,13 +5664,13 @@
         <v>250</v>
       </c>
       <c r="D47" s="28"/>
-      <c r="E47" s="64"/>
+      <c r="E47" s="68"/>
       <c r="F47" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A48" s="69"/>
+      <c r="A48" s="66"/>
       <c r="B48" s="23">
         <v>126</v>
       </c>
@@ -5637,13 +5680,13 @@
       <c r="D48" s="28" t="s">
         <v>252</v>
       </c>
-      <c r="E48" s="64"/>
+      <c r="E48" s="68"/>
       <c r="F48" s="8" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A49" s="69"/>
+      <c r="A49" s="66"/>
       <c r="B49" s="23">
         <v>127</v>
       </c>
@@ -5653,13 +5696,13 @@
       <c r="D49" s="28" t="s">
         <v>255</v>
       </c>
-      <c r="E49" s="64"/>
+      <c r="E49" s="68"/>
       <c r="F49" s="8" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="69"/>
+      <c r="A50" s="66"/>
       <c r="B50" s="23">
         <v>128</v>
       </c>
@@ -5669,13 +5712,13 @@
       <c r="D50" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="E50" s="64"/>
+      <c r="E50" s="68"/>
       <c r="F50" s="8" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A51" s="69"/>
+      <c r="A51" s="66"/>
       <c r="B51" s="23">
         <v>129</v>
       </c>
@@ -5683,13 +5726,13 @@
         <v>259</v>
       </c>
       <c r="D51" s="32"/>
-      <c r="E51" s="64"/>
+      <c r="E51" s="68"/>
       <c r="F51" s="8" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A52" s="69"/>
+      <c r="A52" s="66"/>
       <c r="B52" s="23">
         <v>130</v>
       </c>
@@ -5697,13 +5740,13 @@
         <v>261</v>
       </c>
       <c r="D52" s="32"/>
-      <c r="E52" s="64"/>
+      <c r="E52" s="68"/>
       <c r="F52" s="8" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A53" s="69"/>
+      <c r="A53" s="66"/>
       <c r="B53" s="23">
         <v>131</v>
       </c>
@@ -5713,13 +5756,13 @@
       <c r="D53" s="32" t="s">
         <v>264</v>
       </c>
-      <c r="E53" s="64"/>
+      <c r="E53" s="68"/>
       <c r="F53" s="8" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A54" s="69"/>
+      <c r="A54" s="66"/>
       <c r="B54" s="23">
         <v>132</v>
       </c>
@@ -5729,13 +5772,13 @@
       <c r="D54" s="34" t="s">
         <v>267</v>
       </c>
-      <c r="E54" s="64"/>
+      <c r="E54" s="68"/>
       <c r="F54" s="8" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A55" s="69"/>
+      <c r="A55" s="66"/>
       <c r="B55" s="23">
         <v>133</v>
       </c>
@@ -5745,13 +5788,13 @@
       <c r="D55" s="34" t="s">
         <v>270</v>
       </c>
-      <c r="E55" s="64"/>
+      <c r="E55" s="68"/>
       <c r="F55" s="8" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A56" s="69"/>
+      <c r="A56" s="66"/>
       <c r="B56" s="23">
         <v>134</v>
       </c>
@@ -5761,143 +5804,143 @@
       <c r="D56" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="E56" s="64"/>
+      <c r="E56" s="68"/>
       <c r="F56" s="8" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A57" s="69"/>
+      <c r="A57" s="66"/>
       <c r="B57" s="23">
         <v>135</v>
       </c>
       <c r="C57" s="27" t="s">
         <v>275</v>
       </c>
-      <c r="D57" s="63" t="s">
+      <c r="D57" s="72" t="s">
         <v>276</v>
       </c>
-      <c r="E57" s="64"/>
+      <c r="E57" s="68"/>
       <c r="F57" s="8" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A58" s="69"/>
+      <c r="A58" s="66"/>
       <c r="B58" s="23">
         <v>136</v>
       </c>
       <c r="C58" s="27" t="s">
         <v>278</v>
       </c>
-      <c r="D58" s="64"/>
-      <c r="E58" s="64"/>
+      <c r="D58" s="68"/>
+      <c r="E58" s="68"/>
       <c r="F58" s="8" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A59" s="69"/>
+      <c r="A59" s="66"/>
       <c r="B59" s="23">
         <v>137</v>
       </c>
       <c r="C59" s="27" t="s">
         <v>280</v>
       </c>
-      <c r="D59" s="64"/>
-      <c r="E59" s="64"/>
+      <c r="D59" s="68"/>
+      <c r="E59" s="68"/>
       <c r="F59" s="8" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A60" s="69"/>
+      <c r="A60" s="66"/>
       <c r="B60" s="23">
         <v>138</v>
       </c>
       <c r="C60" s="27" t="s">
         <v>282</v>
       </c>
-      <c r="D60" s="64"/>
-      <c r="E60" s="64"/>
+      <c r="D60" s="68"/>
+      <c r="E60" s="68"/>
       <c r="F60" s="8" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A61" s="69"/>
+      <c r="A61" s="66"/>
       <c r="B61" s="23">
         <v>139</v>
       </c>
       <c r="C61" s="27" t="s">
         <v>284</v>
       </c>
-      <c r="D61" s="64"/>
-      <c r="E61" s="64"/>
+      <c r="D61" s="68"/>
+      <c r="E61" s="68"/>
       <c r="F61" s="8" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A62" s="69"/>
+      <c r="A62" s="66"/>
       <c r="B62" s="23">
         <v>140</v>
       </c>
       <c r="C62" s="27" t="s">
         <v>286</v>
       </c>
-      <c r="D62" s="65"/>
-      <c r="E62" s="64"/>
+      <c r="D62" s="69"/>
+      <c r="E62" s="68"/>
       <c r="F62" s="8" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A63" s="69"/>
+      <c r="A63" s="66"/>
       <c r="B63" s="23">
         <v>141</v>
       </c>
       <c r="C63" s="27" t="s">
         <v>288</v>
       </c>
-      <c r="D63" s="59" t="s">
+      <c r="D63" s="72" t="s">
         <v>289</v>
       </c>
-      <c r="E63" s="64"/>
+      <c r="E63" s="68"/>
       <c r="F63" s="8" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A64" s="69"/>
+      <c r="A64" s="66"/>
       <c r="B64" s="23">
         <v>142</v>
       </c>
       <c r="C64" s="27" t="s">
         <v>291</v>
       </c>
-      <c r="D64" s="59"/>
-      <c r="E64" s="64"/>
+      <c r="D64" s="68"/>
+      <c r="E64" s="68"/>
       <c r="F64" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A65" s="69"/>
+      <c r="A65" s="66"/>
       <c r="B65" s="23">
         <v>143</v>
       </c>
       <c r="C65" s="27" t="s">
         <v>292</v>
       </c>
-      <c r="D65" s="59"/>
-      <c r="E65" s="64"/>
+      <c r="D65" s="69"/>
+      <c r="E65" s="68"/>
       <c r="F65" s="8" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A66" s="69"/>
+      <c r="A66" s="66"/>
       <c r="B66" s="23">
         <v>144</v>
       </c>
@@ -5907,13 +5950,13 @@
       <c r="D66" s="32" t="s">
         <v>295</v>
       </c>
-      <c r="E66" s="64"/>
+      <c r="E66" s="68"/>
       <c r="F66" s="8" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A67" s="69"/>
+      <c r="A67" s="66"/>
       <c r="B67" s="23">
         <v>145</v>
       </c>
@@ -5923,13 +5966,13 @@
       <c r="D67" s="32" t="s">
         <v>298</v>
       </c>
-      <c r="E67" s="64"/>
+      <c r="E67" s="68"/>
       <c r="F67" s="8" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A68" s="69"/>
+      <c r="A68" s="66"/>
       <c r="B68" s="23">
         <v>146</v>
       </c>
@@ -5939,13 +5982,13 @@
       <c r="D68" s="32" t="s">
         <v>301</v>
       </c>
-      <c r="E68" s="64"/>
+      <c r="E68" s="68"/>
       <c r="F68" s="8" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A69" s="69"/>
+      <c r="A69" s="66"/>
       <c r="B69" s="23">
         <v>147</v>
       </c>
@@ -5953,13 +5996,13 @@
         <v>303</v>
       </c>
       <c r="D69" s="34"/>
-      <c r="E69" s="64"/>
+      <c r="E69" s="68"/>
       <c r="F69" s="8" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A70" s="69"/>
+      <c r="A70" s="66"/>
       <c r="B70" s="23">
         <v>148</v>
       </c>
@@ -5967,57 +6010,57 @@
         <v>305</v>
       </c>
       <c r="D70" s="34"/>
-      <c r="E70" s="64"/>
+      <c r="E70" s="68"/>
       <c r="F70" s="8" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A71" s="69"/>
+      <c r="A71" s="66"/>
       <c r="B71" s="23">
         <v>149</v>
       </c>
       <c r="C71" s="27" t="s">
         <v>307</v>
       </c>
-      <c r="D71" s="63" t="s">
+      <c r="D71" s="72" t="s">
         <v>308</v>
       </c>
-      <c r="E71" s="64"/>
+      <c r="E71" s="68"/>
       <c r="F71" s="8" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A72" s="69"/>
+      <c r="A72" s="66"/>
       <c r="B72" s="23">
         <v>150</v>
       </c>
       <c r="C72" s="27" t="s">
         <v>310</v>
       </c>
-      <c r="D72" s="64"/>
-      <c r="E72" s="64"/>
+      <c r="D72" s="68"/>
+      <c r="E72" s="68"/>
       <c r="F72" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A73" s="69"/>
+      <c r="A73" s="66"/>
       <c r="B73" s="23">
         <v>151</v>
       </c>
       <c r="C73" s="27" t="s">
         <v>311</v>
       </c>
-      <c r="D73" s="65"/>
-      <c r="E73" s="64"/>
+      <c r="D73" s="69"/>
+      <c r="E73" s="68"/>
       <c r="F73" s="8" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A74" s="69"/>
+      <c r="A74" s="66"/>
       <c r="B74" s="23">
         <v>152</v>
       </c>
@@ -6025,13 +6068,13 @@
         <v>313</v>
       </c>
       <c r="D74" s="34"/>
-      <c r="E74" s="64"/>
+      <c r="E74" s="68"/>
       <c r="F74" s="8" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A75" s="69"/>
+      <c r="A75" s="66"/>
       <c r="B75" s="23">
         <v>153</v>
       </c>
@@ -6039,13 +6082,13 @@
         <v>315</v>
       </c>
       <c r="D75" s="34"/>
-      <c r="E75" s="64"/>
+      <c r="E75" s="68"/>
       <c r="F75" s="8" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A76" s="69"/>
+      <c r="A76" s="66"/>
       <c r="B76" s="23">
         <v>154</v>
       </c>
@@ -6053,93 +6096,93 @@
         <v>317</v>
       </c>
       <c r="D76" s="34"/>
-      <c r="E76" s="64"/>
+      <c r="E76" s="68"/>
       <c r="F76" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A77" s="69"/>
+      <c r="A77" s="66"/>
       <c r="B77" s="23">
         <v>155</v>
       </c>
       <c r="C77" s="23"/>
       <c r="D77" s="34"/>
-      <c r="E77" s="64"/>
+      <c r="E77" s="68"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A78" s="69"/>
+      <c r="A78" s="66"/>
       <c r="B78" s="23">
         <v>156</v>
       </c>
       <c r="C78" s="23"/>
       <c r="D78" s="34"/>
-      <c r="E78" s="64"/>
+      <c r="E78" s="68"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A79" s="69"/>
+      <c r="A79" s="66"/>
       <c r="B79" s="23">
         <v>157</v>
       </c>
       <c r="C79" s="23"/>
       <c r="D79" s="34"/>
-      <c r="E79" s="64"/>
+      <c r="E79" s="68"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A80" s="69"/>
+      <c r="A80" s="66"/>
       <c r="B80" s="23">
         <v>158</v>
       </c>
       <c r="C80" s="23"/>
       <c r="D80" s="34"/>
-      <c r="E80" s="64"/>
+      <c r="E80" s="68"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A81" s="69"/>
+      <c r="A81" s="66"/>
       <c r="B81" s="23">
         <v>159</v>
       </c>
       <c r="C81" s="27" t="s">
         <v>319</v>
       </c>
-      <c r="D81" s="63" t="s">
+      <c r="D81" s="72" t="s">
         <v>320</v>
       </c>
-      <c r="E81" s="64"/>
+      <c r="E81" s="68"/>
       <c r="F81" s="8" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A82" s="69"/>
+      <c r="A82" s="66"/>
       <c r="B82" s="23">
         <v>160</v>
       </c>
       <c r="C82" s="27" t="s">
         <v>322</v>
       </c>
-      <c r="D82" s="64"/>
-      <c r="E82" s="64"/>
+      <c r="D82" s="68"/>
+      <c r="E82" s="68"/>
       <c r="F82" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A83" s="69"/>
+      <c r="A83" s="66"/>
       <c r="B83" s="23">
         <v>161</v>
       </c>
       <c r="C83" s="27" t="s">
         <v>323</v>
       </c>
-      <c r="D83" s="65"/>
-      <c r="E83" s="64"/>
+      <c r="D83" s="69"/>
+      <c r="E83" s="68"/>
       <c r="F83" s="8" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A84" s="69"/>
+      <c r="A84" s="66"/>
       <c r="B84" s="23">
         <v>162</v>
       </c>
@@ -6147,20 +6190,20 @@
         <v>325</v>
       </c>
       <c r="D84" s="32"/>
-      <c r="E84" s="64"/>
+      <c r="E84" s="68"/>
       <c r="F84" s="8" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A85" s="69"/>
+      <c r="A85" s="66"/>
       <c r="B85" s="23"/>
       <c r="C85" s="27"/>
       <c r="D85" s="32"/>
-      <c r="E85" s="64"/>
+      <c r="E85" s="68"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A86" s="69"/>
+      <c r="A86" s="66"/>
       <c r="B86" s="23">
         <v>170</v>
       </c>
@@ -6168,10 +6211,10 @@
         <v>443</v>
       </c>
       <c r="D86" s="32"/>
-      <c r="E86" s="64"/>
+      <c r="E86" s="68"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A87" s="69"/>
+      <c r="A87" s="66"/>
       <c r="B87" s="23">
         <v>171</v>
       </c>
@@ -6179,10 +6222,10 @@
         <v>446</v>
       </c>
       <c r="D87" s="32"/>
-      <c r="E87" s="64"/>
+      <c r="E87" s="68"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A88" s="69"/>
+      <c r="A88" s="66"/>
       <c r="B88" s="8">
         <v>172</v>
       </c>
@@ -6190,10 +6233,10 @@
         <v>447</v>
       </c>
       <c r="D88" s="32"/>
-      <c r="E88" s="64"/>
+      <c r="E88" s="68"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A89" s="69"/>
+      <c r="A89" s="67"/>
       <c r="B89" s="8">
         <v>173</v>
       </c>
@@ -6201,93 +6244,105 @@
         <v>449</v>
       </c>
       <c r="D89" s="32"/>
-      <c r="E89" s="65"/>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A90" s="70" t="s">
+      <c r="E89" s="69"/>
+    </row>
+    <row r="90" spans="1:6" ht="55.5" x14ac:dyDescent="0.4">
+      <c r="B90" s="94">
+        <v>180</v>
+      </c>
+      <c r="C90" s="94">
+        <v>180</v>
+      </c>
+      <c r="D90" s="96" t="s">
+        <v>457</v>
+      </c>
+      <c r="E90" s="95" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A91" s="76" t="s">
         <v>327</v>
       </c>
-      <c r="B90" s="23">
+      <c r="B91" s="23">
         <v>50000</v>
       </c>
-      <c r="C90" s="27" t="s">
+      <c r="C91" s="27" t="s">
         <v>328</v>
       </c>
-      <c r="D90" s="23"/>
-      <c r="E90" s="3"/>
-      <c r="F90" s="8" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A91" s="70"/>
-      <c r="B91" s="2">
-        <v>50001</v>
-      </c>
-      <c r="C91" s="27" t="s">
-        <v>208</v>
-      </c>
-      <c r="D91" s="2"/>
+      <c r="D91" s="23"/>
       <c r="E91" s="3"/>
       <c r="F91" s="8" t="s">
-        <v>209</v>
+        <v>329</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A92" s="70"/>
+      <c r="A92" s="76"/>
       <c r="B92" s="2">
-        <v>50002</v>
+        <v>50001</v>
       </c>
       <c r="C92" s="27" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" s="3"/>
       <c r="F92" s="8" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A93" s="76"/>
+      <c r="B93" s="2">
+        <v>50002</v>
+      </c>
+      <c r="C93" s="27" t="s">
+        <v>210</v>
+      </c>
+      <c r="D93" s="2"/>
+      <c r="E93" s="38"/>
+      <c r="F93" s="8" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A93" s="70"/>
-      <c r="B93" s="2">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A94" s="76"/>
+      <c r="B94" s="2">
         <v>50003</v>
       </c>
-      <c r="C93" s="13"/>
-      <c r="D93" s="13"/>
-      <c r="E93" s="38"/>
-      <c r="F93" s="21"/>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="C94" s="39"/>
+      <c r="C94" s="13"/>
+      <c r="D94" s="13"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C95" s="39"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B96" s="39"/>
       <c r="C96" s="39"/>
-      <c r="D96" s="39"/>
       <c r="E96" s="40"/>
     </row>
-    <row r="97" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="97" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B97" s="39"/>
       <c r="C97" s="39"/>
-    </row>
-    <row r="98" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="D97" s="39"/>
+    </row>
+    <row r="98" spans="2:4" x14ac:dyDescent="0.4">
       <c r="C98" s="39"/>
+    </row>
+    <row r="99" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C99" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A91:A94"/>
+    <mergeCell ref="D22:D26"/>
+    <mergeCell ref="D57:D62"/>
+    <mergeCell ref="D63:D65"/>
+    <mergeCell ref="D71:D73"/>
+    <mergeCell ref="D81:D83"/>
     <mergeCell ref="E4:E21"/>
     <mergeCell ref="E22:E89"/>
     <mergeCell ref="A1:E2"/>
     <mergeCell ref="A4:A21"/>
     <mergeCell ref="A22:A89"/>
-    <mergeCell ref="A90:A93"/>
-    <mergeCell ref="D22:D26"/>
-    <mergeCell ref="D57:D62"/>
-    <mergeCell ref="D63:D65"/>
-    <mergeCell ref="D71:D73"/>
-    <mergeCell ref="D81:D83"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6298,7 +6353,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AH59"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="L6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="N25" sqref="N24:O25"/>
     </sheetView>
   </sheetViews>
@@ -6328,26 +6383,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="409.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="86" t="s">
         <v>330</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86"/>
+      <c r="R1" s="86"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A2" s="9"/>
@@ -6366,32 +6421,32 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="72" t="s">
+      <c r="A3" s="87" t="s">
         <v>331</v>
       </c>
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="72"/>
-      <c r="L3" s="72"/>
-      <c r="M3" s="72"/>
-      <c r="N3" s="72"/>
-      <c r="O3" s="72"/>
-      <c r="P3" s="72"/>
-      <c r="Q3" s="72"/>
-      <c r="R3" s="72"/>
-      <c r="S3" s="72"/>
-      <c r="T3" s="72"/>
-      <c r="U3" s="72"/>
-      <c r="V3" s="72"/>
-      <c r="W3" s="72"/>
-      <c r="X3" s="72"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="87"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="87"/>
+      <c r="P3" s="87"/>
+      <c r="Q3" s="87"/>
+      <c r="R3" s="87"/>
+      <c r="S3" s="87"/>
+      <c r="T3" s="87"/>
+      <c r="U3" s="87"/>
+      <c r="V3" s="87"/>
+      <c r="W3" s="87"/>
+      <c r="X3" s="87"/>
     </row>
     <row r="4" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A4" s="10" t="s">
@@ -6512,73 +6567,73 @@
       </c>
     </row>
     <row r="6" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="73"/>
-      <c r="B6" s="73"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
-      <c r="G6" s="73"/>
-      <c r="H6" s="73"/>
-      <c r="I6" s="73"/>
-      <c r="J6" s="73"/>
-      <c r="K6" s="73"/>
-      <c r="L6" s="73"/>
-      <c r="M6" s="73"/>
-      <c r="N6" s="73"/>
-      <c r="O6" s="73"/>
-      <c r="P6" s="73"/>
-      <c r="Q6" s="73"/>
-      <c r="R6" s="73"/>
+      <c r="A6" s="88"/>
+      <c r="B6" s="88"/>
+      <c r="C6" s="88"/>
+      <c r="D6" s="88"/>
+      <c r="E6" s="88"/>
+      <c r="F6" s="88"/>
+      <c r="G6" s="88"/>
+      <c r="H6" s="88"/>
+      <c r="I6" s="88"/>
+      <c r="J6" s="88"/>
+      <c r="K6" s="88"/>
+      <c r="L6" s="88"/>
+      <c r="M6" s="88"/>
+      <c r="N6" s="88"/>
+      <c r="O6" s="88"/>
+      <c r="P6" s="88"/>
+      <c r="Q6" s="88"/>
+      <c r="R6" s="88"/>
     </row>
     <row r="7" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="73"/>
-      <c r="B7" s="73"/>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="73"/>
-      <c r="H7" s="73"/>
-      <c r="I7" s="73"/>
-      <c r="J7" s="73"/>
-      <c r="K7" s="73"/>
-      <c r="L7" s="73"/>
-      <c r="M7" s="73"/>
-      <c r="N7" s="73"/>
-      <c r="O7" s="73"/>
-      <c r="P7" s="73"/>
-      <c r="Q7" s="73"/>
-      <c r="R7" s="73"/>
+      <c r="A7" s="88"/>
+      <c r="B7" s="88"/>
+      <c r="C7" s="88"/>
+      <c r="D7" s="88"/>
+      <c r="E7" s="88"/>
+      <c r="F7" s="88"/>
+      <c r="G7" s="88"/>
+      <c r="H7" s="88"/>
+      <c r="I7" s="88"/>
+      <c r="J7" s="88"/>
+      <c r="K7" s="88"/>
+      <c r="L7" s="88"/>
+      <c r="M7" s="88"/>
+      <c r="N7" s="88"/>
+      <c r="O7" s="88"/>
+      <c r="P7" s="88"/>
+      <c r="Q7" s="88"/>
+      <c r="R7" s="88"/>
     </row>
     <row r="8" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="74" t="s">
+      <c r="A9" s="84" t="s">
         <v>350</v>
       </c>
-      <c r="B9" s="74"/>
-      <c r="C9" s="74"/>
-      <c r="D9" s="74"/>
-      <c r="E9" s="74"/>
-      <c r="F9" s="74"/>
-      <c r="G9" s="74"/>
-      <c r="H9" s="74"/>
-      <c r="I9" s="74"/>
-      <c r="J9" s="74"/>
-      <c r="K9" s="74"/>
-      <c r="L9" s="74"/>
-      <c r="M9" s="74"/>
-      <c r="N9" s="74"/>
-      <c r="O9" s="74"/>
-      <c r="P9" s="74"/>
-      <c r="Q9" s="74"/>
-      <c r="R9" s="74"/>
-      <c r="S9" s="74"/>
-      <c r="T9" s="74"/>
-      <c r="U9" s="74"/>
-      <c r="V9" s="74"/>
-      <c r="W9" s="74"/>
-      <c r="X9" s="74"/>
+      <c r="B9" s="84"/>
+      <c r="C9" s="84"/>
+      <c r="D9" s="84"/>
+      <c r="E9" s="84"/>
+      <c r="F9" s="84"/>
+      <c r="G9" s="84"/>
+      <c r="H9" s="84"/>
+      <c r="I9" s="84"/>
+      <c r="J9" s="84"/>
+      <c r="K9" s="84"/>
+      <c r="L9" s="84"/>
+      <c r="M9" s="84"/>
+      <c r="N9" s="84"/>
+      <c r="O9" s="84"/>
+      <c r="P9" s="84"/>
+      <c r="Q9" s="84"/>
+      <c r="R9" s="84"/>
+      <c r="S9" s="84"/>
+      <c r="T9" s="84"/>
+      <c r="U9" s="84"/>
+      <c r="V9" s="84"/>
+      <c r="W9" s="84"/>
+      <c r="X9" s="84"/>
     </row>
     <row r="10" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A10" s="12" t="s">
@@ -6654,14 +6709,14 @@
       <c r="X11" s="14"/>
     </row>
     <row r="12" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="75" t="s">
+      <c r="A12" s="81" t="s">
         <v>351</v>
       </c>
-      <c r="B12" s="76"/>
-      <c r="C12" s="76"/>
-      <c r="D12" s="76"/>
-      <c r="E12" s="76"/>
-      <c r="F12" s="77"/>
+      <c r="B12" s="82"/>
+      <c r="C12" s="82"/>
+      <c r="D12" s="82"/>
+      <c r="E12" s="82"/>
+      <c r="F12" s="83"/>
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
@@ -6791,26 +6846,26 @@
       <c r="X14" s="14"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A15" s="74" t="s">
+      <c r="A15" s="84" t="s">
         <v>355</v>
       </c>
-      <c r="B15" s="74"/>
-      <c r="C15" s="74"/>
-      <c r="D15" s="74"/>
-      <c r="E15" s="74"/>
-      <c r="F15" s="74"/>
-      <c r="G15" s="74"/>
-      <c r="H15" s="74"/>
-      <c r="I15" s="74"/>
-      <c r="J15" s="74"/>
-      <c r="K15" s="74"/>
-      <c r="L15" s="74"/>
-      <c r="M15" s="74"/>
-      <c r="N15" s="74"/>
-      <c r="O15" s="74"/>
-      <c r="P15" s="78"/>
-      <c r="Q15" s="74"/>
-      <c r="R15" s="74"/>
+      <c r="B15" s="84"/>
+      <c r="C15" s="84"/>
+      <c r="D15" s="84"/>
+      <c r="E15" s="84"/>
+      <c r="F15" s="84"/>
+      <c r="G15" s="84"/>
+      <c r="H15" s="84"/>
+      <c r="I15" s="84"/>
+      <c r="J15" s="84"/>
+      <c r="K15" s="84"/>
+      <c r="L15" s="84"/>
+      <c r="M15" s="84"/>
+      <c r="N15" s="84"/>
+      <c r="O15" s="84"/>
+      <c r="P15" s="85"/>
+      <c r="Q15" s="84"/>
+      <c r="R15" s="84"/>
       <c r="S15" s="21"/>
       <c r="T15" s="21"/>
       <c r="U15" s="21"/>
@@ -6819,24 +6874,24 @@
       <c r="X15" s="21"/>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A16" s="74"/>
-      <c r="B16" s="74"/>
-      <c r="C16" s="74"/>
-      <c r="D16" s="74"/>
-      <c r="E16" s="74"/>
-      <c r="F16" s="74"/>
-      <c r="G16" s="74"/>
-      <c r="H16" s="74"/>
-      <c r="I16" s="74"/>
-      <c r="J16" s="74"/>
-      <c r="K16" s="74"/>
-      <c r="L16" s="74"/>
-      <c r="M16" s="74"/>
-      <c r="N16" s="74"/>
-      <c r="O16" s="74"/>
-      <c r="P16" s="74"/>
-      <c r="Q16" s="74"/>
-      <c r="R16" s="74"/>
+      <c r="A16" s="84"/>
+      <c r="B16" s="84"/>
+      <c r="C16" s="84"/>
+      <c r="D16" s="84"/>
+      <c r="E16" s="84"/>
+      <c r="F16" s="84"/>
+      <c r="G16" s="84"/>
+      <c r="H16" s="84"/>
+      <c r="I16" s="84"/>
+      <c r="J16" s="84"/>
+      <c r="K16" s="84"/>
+      <c r="L16" s="84"/>
+      <c r="M16" s="84"/>
+      <c r="N16" s="84"/>
+      <c r="O16" s="84"/>
+      <c r="P16" s="84"/>
+      <c r="Q16" s="84"/>
+      <c r="R16" s="84"/>
       <c r="S16" s="21"/>
       <c r="T16" s="21"/>
       <c r="U16" s="21"/>
@@ -6850,29 +6905,29 @@
       <c r="A19" s="79" t="s">
         <v>356</v>
       </c>
-      <c r="B19" s="80"/>
-      <c r="C19" s="80"/>
-      <c r="D19" s="80"/>
-      <c r="E19" s="80"/>
-      <c r="F19" s="80"/>
-      <c r="G19" s="80"/>
-      <c r="H19" s="80"/>
-      <c r="I19" s="80"/>
-      <c r="J19" s="80"/>
-      <c r="K19" s="80"/>
-      <c r="L19" s="80"/>
-      <c r="M19" s="80"/>
-      <c r="N19" s="80"/>
-      <c r="O19" s="80"/>
-      <c r="P19" s="80"/>
-      <c r="Q19" s="80"/>
-      <c r="R19" s="80"/>
-      <c r="S19" s="80"/>
-      <c r="T19" s="80"/>
-      <c r="U19" s="80"/>
-      <c r="V19" s="80"/>
-      <c r="W19" s="80"/>
-      <c r="X19" s="80"/>
+      <c r="B19" s="77"/>
+      <c r="C19" s="77"/>
+      <c r="D19" s="77"/>
+      <c r="E19" s="77"/>
+      <c r="F19" s="77"/>
+      <c r="G19" s="77"/>
+      <c r="H19" s="77"/>
+      <c r="I19" s="77"/>
+      <c r="J19" s="77"/>
+      <c r="K19" s="77"/>
+      <c r="L19" s="77"/>
+      <c r="M19" s="77"/>
+      <c r="N19" s="77"/>
+      <c r="O19" s="77"/>
+      <c r="P19" s="77"/>
+      <c r="Q19" s="77"/>
+      <c r="R19" s="77"/>
+      <c r="S19" s="77"/>
+      <c r="T19" s="77"/>
+      <c r="U19" s="77"/>
+      <c r="V19" s="77"/>
+      <c r="W19" s="77"/>
+      <c r="X19" s="77"/>
     </row>
     <row r="20" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A20" s="10" t="s">
@@ -6951,17 +7006,17 @@
       <c r="X21" s="6"/>
     </row>
     <row r="22" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="80" t="s">
+      <c r="A22" s="77" t="s">
         <v>357</v>
       </c>
-      <c r="B22" s="80"/>
-      <c r="C22" s="80"/>
-      <c r="D22" s="80"/>
-      <c r="E22" s="80"/>
-      <c r="F22" s="80"/>
-      <c r="G22" s="80"/>
-      <c r="H22" s="80"/>
-      <c r="I22" s="80"/>
+      <c r="B22" s="77"/>
+      <c r="C22" s="77"/>
+      <c r="D22" s="77"/>
+      <c r="E22" s="77"/>
+      <c r="F22" s="77"/>
+      <c r="G22" s="77"/>
+      <c r="H22" s="77"/>
+      <c r="I22" s="77"/>
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
@@ -7212,29 +7267,29 @@
       <c r="A29" s="79" t="s">
         <v>382</v>
       </c>
-      <c r="B29" s="80"/>
-      <c r="C29" s="80"/>
-      <c r="D29" s="80"/>
-      <c r="E29" s="80"/>
-      <c r="F29" s="80"/>
-      <c r="G29" s="80"/>
-      <c r="H29" s="80"/>
-      <c r="I29" s="80"/>
-      <c r="J29" s="80"/>
-      <c r="K29" s="80"/>
-      <c r="L29" s="80"/>
-      <c r="M29" s="80"/>
-      <c r="N29" s="80"/>
-      <c r="O29" s="80"/>
-      <c r="P29" s="80"/>
-      <c r="Q29" s="80"/>
-      <c r="R29" s="80"/>
-      <c r="S29" s="80"/>
-      <c r="T29" s="80"/>
-      <c r="U29" s="80"/>
-      <c r="V29" s="80"/>
-      <c r="W29" s="80"/>
-      <c r="X29" s="80"/>
+      <c r="B29" s="77"/>
+      <c r="C29" s="77"/>
+      <c r="D29" s="77"/>
+      <c r="E29" s="77"/>
+      <c r="F29" s="77"/>
+      <c r="G29" s="77"/>
+      <c r="H29" s="77"/>
+      <c r="I29" s="77"/>
+      <c r="J29" s="77"/>
+      <c r="K29" s="77"/>
+      <c r="L29" s="77"/>
+      <c r="M29" s="77"/>
+      <c r="N29" s="77"/>
+      <c r="O29" s="77"/>
+      <c r="P29" s="77"/>
+      <c r="Q29" s="77"/>
+      <c r="R29" s="77"/>
+      <c r="S29" s="77"/>
+      <c r="T29" s="77"/>
+      <c r="U29" s="77"/>
+      <c r="V29" s="77"/>
+      <c r="W29" s="77"/>
+      <c r="X29" s="77"/>
     </row>
     <row r="30" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A30" s="10" t="s">
@@ -7377,32 +7432,32 @@
     </row>
     <row r="34" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="35" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A35" s="80" t="s">
+      <c r="A35" s="77" t="s">
         <v>390</v>
       </c>
-      <c r="B35" s="80"/>
-      <c r="C35" s="80"/>
-      <c r="D35" s="80"/>
-      <c r="E35" s="80"/>
-      <c r="F35" s="80"/>
-      <c r="G35" s="80"/>
-      <c r="H35" s="80"/>
-      <c r="I35" s="80"/>
-      <c r="J35" s="80"/>
-      <c r="K35" s="80"/>
-      <c r="L35" s="80"/>
-      <c r="M35" s="80"/>
-      <c r="N35" s="80"/>
-      <c r="O35" s="80"/>
-      <c r="P35" s="80"/>
-      <c r="Q35" s="80"/>
-      <c r="R35" s="80"/>
-      <c r="S35" s="80"/>
-      <c r="T35" s="80"/>
-      <c r="U35" s="80"/>
-      <c r="V35" s="80"/>
-      <c r="W35" s="80"/>
-      <c r="X35" s="80"/>
+      <c r="B35" s="77"/>
+      <c r="C35" s="77"/>
+      <c r="D35" s="77"/>
+      <c r="E35" s="77"/>
+      <c r="F35" s="77"/>
+      <c r="G35" s="77"/>
+      <c r="H35" s="77"/>
+      <c r="I35" s="77"/>
+      <c r="J35" s="77"/>
+      <c r="K35" s="77"/>
+      <c r="L35" s="77"/>
+      <c r="M35" s="77"/>
+      <c r="N35" s="77"/>
+      <c r="O35" s="77"/>
+      <c r="P35" s="77"/>
+      <c r="Q35" s="77"/>
+      <c r="R35" s="77"/>
+      <c r="S35" s="77"/>
+      <c r="T35" s="77"/>
+      <c r="U35" s="77"/>
+      <c r="V35" s="77"/>
+      <c r="W35" s="77"/>
+      <c r="X35" s="77"/>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A36" s="10" t="s">
@@ -7509,16 +7564,16 @@
       <c r="X37" s="5"/>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A38" s="80" t="s">
+      <c r="A38" s="77" t="s">
         <v>398</v>
       </c>
-      <c r="B38" s="80"/>
-      <c r="C38" s="80"/>
-      <c r="D38" s="80"/>
-      <c r="E38" s="80"/>
-      <c r="F38" s="80"/>
-      <c r="G38" s="80"/>
-      <c r="H38" s="80"/>
+      <c r="B38" s="77"/>
+      <c r="C38" s="77"/>
+      <c r="D38" s="77"/>
+      <c r="E38" s="77"/>
+      <c r="F38" s="77"/>
+      <c r="G38" s="77"/>
+      <c r="H38" s="77"/>
       <c r="I38" s="6"/>
       <c r="J38" s="6"/>
       <c r="K38" s="6"/>
@@ -7537,32 +7592,32 @@
       <c r="X38" s="5"/>
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A40" s="82" t="s">
+      <c r="A40" s="80" t="s">
         <v>399</v>
       </c>
-      <c r="B40" s="82"/>
-      <c r="C40" s="82"/>
-      <c r="D40" s="82"/>
-      <c r="E40" s="82"/>
-      <c r="F40" s="82"/>
-      <c r="G40" s="82"/>
-      <c r="H40" s="82"/>
-      <c r="I40" s="82"/>
-      <c r="J40" s="82"/>
-      <c r="K40" s="82"/>
-      <c r="L40" s="82"/>
-      <c r="M40" s="82"/>
-      <c r="N40" s="82"/>
-      <c r="O40" s="82"/>
-      <c r="P40" s="82"/>
-      <c r="Q40" s="82"/>
-      <c r="R40" s="82"/>
-      <c r="S40" s="82"/>
-      <c r="T40" s="82"/>
-      <c r="U40" s="82"/>
-      <c r="V40" s="82"/>
-      <c r="W40" s="82"/>
-      <c r="X40" s="82"/>
+      <c r="B40" s="80"/>
+      <c r="C40" s="80"/>
+      <c r="D40" s="80"/>
+      <c r="E40" s="80"/>
+      <c r="F40" s="80"/>
+      <c r="G40" s="80"/>
+      <c r="H40" s="80"/>
+      <c r="I40" s="80"/>
+      <c r="J40" s="80"/>
+      <c r="K40" s="80"/>
+      <c r="L40" s="80"/>
+      <c r="M40" s="80"/>
+      <c r="N40" s="80"/>
+      <c r="O40" s="80"/>
+      <c r="P40" s="80"/>
+      <c r="Q40" s="80"/>
+      <c r="R40" s="80"/>
+      <c r="S40" s="80"/>
+      <c r="T40" s="80"/>
+      <c r="U40" s="80"/>
+      <c r="V40" s="80"/>
+      <c r="W40" s="80"/>
+      <c r="X40" s="80"/>
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A41" s="16" t="s">
@@ -7649,16 +7704,16 @@
       <c r="X42" s="18"/>
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A43" s="82" t="s">
+      <c r="A43" s="80" t="s">
         <v>404</v>
       </c>
-      <c r="B43" s="82"/>
-      <c r="C43" s="82"/>
-      <c r="D43" s="82"/>
-      <c r="E43" s="82"/>
-      <c r="F43" s="82"/>
-      <c r="G43" s="82"/>
-      <c r="H43" s="82"/>
+      <c r="B43" s="80"/>
+      <c r="C43" s="80"/>
+      <c r="D43" s="80"/>
+      <c r="E43" s="80"/>
+      <c r="F43" s="80"/>
+      <c r="G43" s="80"/>
+      <c r="H43" s="80"/>
       <c r="I43" s="19"/>
       <c r="J43" s="19"/>
       <c r="K43" s="19"/>
@@ -7691,32 +7746,32 @@
       <c r="M44" s="7"/>
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A46" s="80" t="s">
+      <c r="A46" s="77" t="s">
         <v>405</v>
       </c>
-      <c r="B46" s="80"/>
-      <c r="C46" s="80"/>
-      <c r="D46" s="80"/>
-      <c r="E46" s="80"/>
-      <c r="F46" s="80"/>
-      <c r="G46" s="80"/>
-      <c r="H46" s="80"/>
-      <c r="I46" s="80"/>
-      <c r="J46" s="80"/>
-      <c r="K46" s="80"/>
-      <c r="L46" s="80"/>
-      <c r="M46" s="80"/>
-      <c r="N46" s="80"/>
-      <c r="O46" s="80"/>
-      <c r="P46" s="80"/>
-      <c r="Q46" s="80"/>
-      <c r="R46" s="80"/>
-      <c r="S46" s="80"/>
-      <c r="T46" s="80"/>
-      <c r="U46" s="80"/>
-      <c r="V46" s="80"/>
-      <c r="W46" s="80"/>
-      <c r="X46" s="80"/>
+      <c r="B46" s="77"/>
+      <c r="C46" s="77"/>
+      <c r="D46" s="77"/>
+      <c r="E46" s="77"/>
+      <c r="F46" s="77"/>
+      <c r="G46" s="77"/>
+      <c r="H46" s="77"/>
+      <c r="I46" s="77"/>
+      <c r="J46" s="77"/>
+      <c r="K46" s="77"/>
+      <c r="L46" s="77"/>
+      <c r="M46" s="77"/>
+      <c r="N46" s="77"/>
+      <c r="O46" s="77"/>
+      <c r="P46" s="77"/>
+      <c r="Q46" s="77"/>
+      <c r="R46" s="77"/>
+      <c r="S46" s="77"/>
+      <c r="T46" s="77"/>
+      <c r="U46" s="77"/>
+      <c r="V46" s="77"/>
+      <c r="W46" s="77"/>
+      <c r="X46" s="77"/>
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A47" s="10" t="s">
@@ -7803,16 +7858,16 @@
       <c r="X48" s="5"/>
     </row>
     <row r="49" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="A49" s="80" t="s">
+      <c r="A49" s="77" t="s">
         <v>408</v>
       </c>
-      <c r="B49" s="80"/>
-      <c r="C49" s="80"/>
-      <c r="D49" s="80"/>
-      <c r="E49" s="80"/>
-      <c r="F49" s="80"/>
-      <c r="G49" s="80"/>
-      <c r="H49" s="80"/>
+      <c r="B49" s="77"/>
+      <c r="C49" s="77"/>
+      <c r="D49" s="77"/>
+      <c r="E49" s="77"/>
+      <c r="F49" s="77"/>
+      <c r="G49" s="77"/>
+      <c r="H49" s="77"/>
       <c r="I49" s="5"/>
       <c r="J49" s="5"/>
       <c r="K49" s="5"/>
@@ -7831,16 +7886,16 @@
       <c r="X49" s="5"/>
     </row>
     <row r="50" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="A50" s="80" t="s">
+      <c r="A50" s="77" t="s">
         <v>409</v>
       </c>
-      <c r="B50" s="80"/>
-      <c r="C50" s="80"/>
-      <c r="D50" s="80"/>
-      <c r="E50" s="80"/>
-      <c r="F50" s="80"/>
-      <c r="G50" s="80"/>
-      <c r="H50" s="80"/>
+      <c r="B50" s="77"/>
+      <c r="C50" s="77"/>
+      <c r="D50" s="77"/>
+      <c r="E50" s="77"/>
+      <c r="F50" s="77"/>
+      <c r="G50" s="77"/>
+      <c r="H50" s="77"/>
       <c r="I50" s="5"/>
       <c r="J50" s="5"/>
       <c r="K50" s="5"/>
@@ -7859,32 +7914,32 @@
       <c r="X50" s="5"/>
     </row>
     <row r="52" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="80" t="s">
+      <c r="A52" s="77" t="s">
         <v>410</v>
       </c>
-      <c r="B52" s="80"/>
-      <c r="C52" s="80"/>
-      <c r="D52" s="80"/>
-      <c r="E52" s="80"/>
-      <c r="F52" s="80"/>
-      <c r="G52" s="80"/>
-      <c r="H52" s="80"/>
-      <c r="I52" s="80"/>
-      <c r="J52" s="80"/>
-      <c r="K52" s="80"/>
-      <c r="L52" s="80"/>
-      <c r="M52" s="80"/>
-      <c r="N52" s="80"/>
-      <c r="O52" s="80"/>
-      <c r="P52" s="80"/>
-      <c r="Q52" s="80"/>
-      <c r="R52" s="80"/>
-      <c r="S52" s="80"/>
-      <c r="T52" s="80"/>
-      <c r="U52" s="80"/>
-      <c r="V52" s="80"/>
-      <c r="W52" s="80"/>
-      <c r="X52" s="81"/>
+      <c r="B52" s="77"/>
+      <c r="C52" s="77"/>
+      <c r="D52" s="77"/>
+      <c r="E52" s="77"/>
+      <c r="F52" s="77"/>
+      <c r="G52" s="77"/>
+      <c r="H52" s="77"/>
+      <c r="I52" s="77"/>
+      <c r="J52" s="77"/>
+      <c r="K52" s="77"/>
+      <c r="L52" s="77"/>
+      <c r="M52" s="77"/>
+      <c r="N52" s="77"/>
+      <c r="O52" s="77"/>
+      <c r="P52" s="77"/>
+      <c r="Q52" s="77"/>
+      <c r="R52" s="77"/>
+      <c r="S52" s="77"/>
+      <c r="T52" s="77"/>
+      <c r="U52" s="77"/>
+      <c r="V52" s="77"/>
+      <c r="W52" s="77"/>
+      <c r="X52" s="78"/>
     </row>
     <row r="53" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A53" s="10" t="s">
@@ -8102,6 +8157,16 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="A3:X3"/>
+    <mergeCell ref="A6:R6"/>
+    <mergeCell ref="A7:R7"/>
+    <mergeCell ref="A9:X9"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A15:R15"/>
+    <mergeCell ref="A16:R16"/>
+    <mergeCell ref="A19:X19"/>
+    <mergeCell ref="A22:I22"/>
     <mergeCell ref="A46:X46"/>
     <mergeCell ref="A49:H49"/>
     <mergeCell ref="A50:H50"/>
@@ -8111,16 +8176,6 @@
     <mergeCell ref="A38:H38"/>
     <mergeCell ref="A40:X40"/>
     <mergeCell ref="A43:H43"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="A15:R15"/>
-    <mergeCell ref="A16:R16"/>
-    <mergeCell ref="A19:X19"/>
-    <mergeCell ref="A22:I22"/>
-    <mergeCell ref="A1:R1"/>
-    <mergeCell ref="A3:X3"/>
-    <mergeCell ref="A6:R6"/>
-    <mergeCell ref="A7:R7"/>
-    <mergeCell ref="A9:X9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8144,11 +8199,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="89" t="s">
         <v>420</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="85"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="91"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
@@ -8157,7 +8212,7 @@
       <c r="B2" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="C2" s="86" t="s">
+      <c r="C2" s="92" t="s">
         <v>423</v>
       </c>
     </row>
@@ -8168,7 +8223,7 @@
       <c r="B3" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="C3" s="87"/>
+      <c r="C3" s="93"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
@@ -8186,7 +8241,7 @@
       <c r="B5" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="C5" s="70" t="s">
+      <c r="C5" s="76" t="s">
         <v>430</v>
       </c>
     </row>
@@ -8197,7 +8252,7 @@
       <c r="B6" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="C6" s="70"/>
+      <c r="C6" s="76"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
@@ -8206,7 +8261,7 @@
       <c r="B7" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="C7" s="70" t="s">
+      <c r="C7" s="76" t="s">
         <v>435</v>
       </c>
     </row>
@@ -8217,7 +8272,7 @@
       <c r="B8" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="C8" s="70"/>
+      <c r="C8" s="76"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
